--- a/Results/metrics_summary_sar.xlsx
+++ b/Results/metrics_summary_sar.xlsx
@@ -11764,16 +11764,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.334237915188254</v>
+        <v>-0.3135205833479584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1117149839493905</v>
+        <v>0.09829515618284414</v>
       </c>
       <c r="E2" t="n">
-        <v>94.81399145944057</v>
+        <v>94.81079523576287</v>
       </c>
       <c r="F2" t="n">
-        <v>1.03810939554132</v>
+        <v>1.038074400391564</v>
       </c>
     </row>
     <row r="3">
@@ -11784,16 +11784,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.571772627060112</v>
+        <v>0.5359659135609213</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3269239370552218</v>
+        <v>0.2872594604991929</v>
       </c>
       <c r="E3" t="n">
-        <v>2.383189337003814</v>
+        <v>2.374992050202048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8411256483542874</v>
+        <v>0.838232488306605</v>
       </c>
     </row>
     <row r="4">
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.7487828835998309</v>
+        <v>-0.77025495551088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.560675806772078</v>
+        <v>0.5932926964890677</v>
       </c>
       <c r="E4" t="n">
-        <v>50.37124542843451</v>
+        <v>50.36762266923662</v>
       </c>
       <c r="F4" t="n">
-        <v>1.212352972724967</v>
+        <v>1.21226577887368</v>
       </c>
     </row>
     <row r="5">
@@ -11824,16 +11824,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.6533623583684395</v>
+        <v>-0.6605137381577277</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4268823713327691</v>
+        <v>0.4362783982950952</v>
       </c>
       <c r="E5" t="n">
-        <v>32.84738822716416</v>
+        <v>32.84501852338085</v>
       </c>
       <c r="F5" t="n">
-        <v>1.519959865778787</v>
+        <v>1.519850211561547</v>
       </c>
     </row>
     <row r="6">
@@ -11844,16 +11844,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.7945334811039783</v>
+        <v>-0.8116026707749062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6312834525952058</v>
+        <v>0.658698895208961</v>
       </c>
       <c r="E6" t="n">
-        <v>13.33399597896832</v>
+        <v>13.33178419422978</v>
       </c>
       <c r="F6" t="n">
-        <v>1.285410923422396</v>
+        <v>1.285197705099272</v>
       </c>
     </row>
     <row r="7">
@@ -11864,16 +11864,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.627832469423162</v>
+        <v>-0.6348917243710286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3941736096619857</v>
+        <v>0.4030875016748183</v>
       </c>
       <c r="E7" t="n">
-        <v>9.974340141640347</v>
+        <v>9.973241273005375</v>
       </c>
       <c r="F7" t="n">
-        <v>1.660161103606512</v>
+        <v>1.659978204393146</v>
       </c>
     </row>
     <row r="8">
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.08904948262894447</v>
+        <v>-0.1343354118257376</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007929810356482674</v>
+        <v>0.01804600287039051</v>
       </c>
       <c r="E8" t="n">
-        <v>23.04169760650728</v>
+        <v>23.03409333646541</v>
       </c>
       <c r="F8" t="n">
-        <v>1.012821872813507</v>
+        <v>1.012487619185293</v>
       </c>
     </row>
     <row r="9">
@@ -11904,16 +11904,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4309147496847878</v>
+        <v>-0.4401023097425772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1856875214959035</v>
+        <v>0.1936900430407513</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4732243591101</v>
+        <v>107.4714419143188</v>
       </c>
       <c r="F9" t="n">
-        <v>1.056247905249239</v>
+        <v>1.056230387364313</v>
       </c>
     </row>
     <row r="10">
@@ -11924,16 +11924,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1450805354568289</v>
+        <v>-0.177042628200643</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02104836176844019</v>
+        <v>0.03134409220019112</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9356868077330236</v>
+        <v>0.9377309302693492</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7319583893609051</v>
+        <v>0.7335574421924504</v>
       </c>
     </row>
     <row r="11">
@@ -11948,16 +11948,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3433558985878301</v>
+        <v>0.32247321402185</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1178932730950563</v>
+        <v>0.1039889737615819</v>
       </c>
       <c r="E11" t="n">
-        <v>95.23906771763704</v>
+        <v>95.24103072524149</v>
       </c>
       <c r="F11" t="n">
-        <v>1.04276351515661</v>
+        <v>1.0427850079406</v>
       </c>
     </row>
     <row r="12">
@@ -11968,16 +11968,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.5501847615166511</v>
+        <v>-0.5123130418293965</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3027032718051343</v>
+        <v>0.2624646528284891</v>
       </c>
       <c r="E12" t="n">
-        <v>2.855702720748918</v>
+        <v>2.861461993441254</v>
       </c>
       <c r="F12" t="n">
-        <v>1.007895077911383</v>
+        <v>1.009927762391031</v>
       </c>
     </row>
     <row r="13">
@@ -11988,16 +11988,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.771766512637173</v>
+        <v>0.7952199449680954</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5956235500281439</v>
+        <v>0.6323747608750606</v>
       </c>
       <c r="E13" t="n">
-        <v>50.65908111699217</v>
+        <v>50.66139684101068</v>
       </c>
       <c r="F13" t="n">
-        <v>1.219280704007192</v>
+        <v>1.219336439672927</v>
       </c>
     </row>
     <row r="14">
@@ -12008,16 +12008,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6516763255490131</v>
+        <v>0.6579434298867493</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4246820332810633</v>
+        <v>0.4328895569311399</v>
       </c>
       <c r="E14" t="n">
-        <v>33.04310028393819</v>
+        <v>33.04490745902051</v>
       </c>
       <c r="F14" t="n">
-        <v>1.529016125274619</v>
+        <v>1.529099749384291</v>
       </c>
     </row>
     <row r="15">
@@ -12028,16 +12028,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8131276231254073</v>
+        <v>0.831106158555343</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6611765314895744</v>
+        <v>0.6907374467886189</v>
       </c>
       <c r="E15" t="n">
-        <v>13.56596883988154</v>
+        <v>13.56761859338233</v>
       </c>
       <c r="F15" t="n">
-        <v>1.307773345746935</v>
+        <v>1.307932383680816</v>
       </c>
     </row>
     <row r="16">
@@ -12048,16 +12048,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6245871845824724</v>
+        <v>0.6303863619396202</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3901091511446596</v>
+        <v>0.3973869653194699</v>
       </c>
       <c r="E16" t="n">
-        <v>10.12427907023131</v>
+        <v>10.12554733809081</v>
       </c>
       <c r="F16" t="n">
-        <v>1.685117418874322</v>
+        <v>1.68532851343691</v>
       </c>
     </row>
     <row r="17">
@@ -12068,16 +12068,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1291316710131971</v>
+        <v>0.1783996638729473</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01667498845866058</v>
+        <v>0.03182644006998057</v>
       </c>
       <c r="E17" t="n">
-        <v>23.48246412172523</v>
+        <v>23.48740899740714</v>
       </c>
       <c r="F17" t="n">
-        <v>1.032196225130779</v>
+        <v>1.032413582303611</v>
       </c>
     </row>
     <row r="18">
@@ -12088,16 +12088,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4315585276344862</v>
+        <v>0.438675949589884</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1862427627740456</v>
+        <v>0.1924365887485865</v>
       </c>
       <c r="E18" t="n">
-        <v>107.8812190324059</v>
+        <v>107.8822292113217</v>
       </c>
       <c r="F18" t="n">
-        <v>1.060257680908167</v>
+        <v>1.060267608956479</v>
       </c>
     </row>
     <row r="19">
@@ -12108,16 +12108,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1615583136636058</v>
+        <v>0.1935437066476766</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02610108871382806</v>
+        <v>0.03745916638292193</v>
       </c>
       <c r="E19" t="n">
-        <v>1.268104052428724</v>
+        <v>1.268022881858375</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9919979549637997</v>
+        <v>0.9919344577770859</v>
       </c>
     </row>
     <row r="20">
@@ -12132,16 +12132,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5361974033056724</v>
+        <v>0.4991988406082875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2875076553117461</v>
+        <v>0.2491994824646585</v>
       </c>
       <c r="E20" t="n">
-        <v>96.02913218730497</v>
+        <v>95.74950170339439</v>
       </c>
       <c r="F20" t="n">
-        <v>1.051413856065383</v>
+        <v>1.048352208431325</v>
       </c>
     </row>
     <row r="21">
@@ -12152,16 +12152,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.04224125669094742</v>
+        <v>-0.1724619284442715</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001784323766830507</v>
+        <v>0.02974311676271701</v>
       </c>
       <c r="E21" t="n">
-        <v>3.71081015355385</v>
+        <v>3.578895532111899</v>
       </c>
       <c r="F21" t="n">
-        <v>1.3096977012543</v>
+        <v>1.263139599568905</v>
       </c>
     </row>
     <row r="22">
@@ -12172,16 +12172,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3432885398590342</v>
+        <v>0.3595134068470988</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1178470215985476</v>
+        <v>0.1292498897028075</v>
       </c>
       <c r="E22" t="n">
-        <v>50.46971437293465</v>
+        <v>49.97096413290286</v>
       </c>
       <c r="F22" t="n">
-        <v>1.214722958151582</v>
+        <v>1.202718860754211</v>
       </c>
     </row>
     <row r="23">
@@ -12192,16 +12192,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1574063476224153</v>
+        <v>0.2131058651786875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02477675827182868</v>
+        <v>0.04541410977355688</v>
       </c>
       <c r="E23" t="n">
-        <v>33.01900230990833</v>
+        <v>32.55744658769294</v>
       </c>
       <c r="F23" t="n">
-        <v>1.527901030426936</v>
+        <v>1.506543284455286</v>
       </c>
     </row>
     <row r="24">
@@ -12212,16 +12212,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2913686846288471</v>
+        <v>0.334046194938312</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08489571038234457</v>
+        <v>0.1115868603527648</v>
       </c>
       <c r="E24" t="n">
-        <v>13.50541765813088</v>
+        <v>13.02319781096794</v>
       </c>
       <c r="F24" t="n">
-        <v>1.301936149562745</v>
+        <v>1.255449660440354</v>
       </c>
     </row>
     <row r="25">
@@ -12232,16 +12232,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1229341135276266</v>
+        <v>0.1812890442908888</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0151127962688234</v>
+        <v>0.03286571757990386</v>
       </c>
       <c r="E25" t="n">
-        <v>10.28290965497478</v>
+        <v>9.894628245019421</v>
       </c>
       <c r="F25" t="n">
-        <v>1.711520401216386</v>
+        <v>1.646893600354613</v>
       </c>
     </row>
     <row r="26">
@@ -12252,16 +12252,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.473825429362313</v>
+        <v>0.3740677586978173</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2245105375103804</v>
+        <v>0.1399266880972085</v>
       </c>
       <c r="E26" t="n">
-        <v>23.47663905295409</v>
+        <v>23.01834207461799</v>
       </c>
       <c r="F26" t="n">
-        <v>1.031940178151828</v>
+        <v>1.011795256027165</v>
       </c>
     </row>
     <row r="27">
@@ -12272,16 +12272,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.09999249443165652</v>
+        <v>0.062916949505907</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009998498942664868</v>
+        <v>0.003958542535128856</v>
       </c>
       <c r="E27" t="n">
-        <v>108.9364448636236</v>
+        <v>108.6970115555703</v>
       </c>
       <c r="F27" t="n">
-        <v>1.070628450748144</v>
+        <v>1.068275297843443</v>
       </c>
     </row>
     <row r="28">
@@ -12292,16 +12292,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1464208556345616</v>
+        <v>0.07146787709868095</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02143906696475715</v>
+        <v>0.005107657456992164</v>
       </c>
       <c r="E28" t="n">
-        <v>3.232867338044162</v>
+        <v>3.277001975861182</v>
       </c>
       <c r="F28" t="n">
-        <v>2.528970538235329</v>
+        <v>2.563495678639778</v>
       </c>
     </row>
     <row r="29">
@@ -12316,16 +12316,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4235055037053861</v>
+        <v>0.474657140803259</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1793569116687529</v>
+        <v>0.2252994013155247</v>
       </c>
       <c r="E29" t="n">
-        <v>94.06152010560869</v>
+        <v>94.10462672779337</v>
       </c>
       <c r="F29" t="n">
-        <v>1.029870658090606</v>
+        <v>1.030342628406497</v>
       </c>
     </row>
     <row r="30">
@@ -12336,16 +12336,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02215961927816592</v>
+        <v>-0.01382885729081073</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0004910487265532622</v>
+        <v>0.0001912372939696095</v>
       </c>
       <c r="E30" t="n">
-        <v>4.244451477367106</v>
+        <v>4.508768830337317</v>
       </c>
       <c r="F30" t="n">
-        <v>1.498041697894273</v>
+        <v>1.591330175413171</v>
       </c>
     </row>
     <row r="31">
@@ -12356,16 +12356,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.8212002727884172</v>
+        <v>0.8384647896928151</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6743698880277709</v>
+        <v>0.7030232035546166</v>
       </c>
       <c r="E31" t="n">
-        <v>48.42615059710822</v>
+        <v>48.21379709723898</v>
       </c>
       <c r="F31" t="n">
-        <v>1.165537741516504</v>
+        <v>1.160426742281816</v>
       </c>
     </row>
     <row r="32">
@@ -12376,16 +12376,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3375630398184611</v>
+        <v>0.3446116538830708</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11394880585148</v>
+        <v>0.1187571919920254</v>
       </c>
       <c r="E32" t="n">
-        <v>31.83741417410689</v>
+        <v>31.74142270510038</v>
       </c>
       <c r="F32" t="n">
-        <v>1.473224946840682</v>
+        <v>1.468783096568203</v>
       </c>
     </row>
     <row r="33">
@@ -12396,16 +12396,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6821529386621006</v>
+        <v>0.7036209467835818</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4653326317253394</v>
+        <v>0.4950824367526237</v>
       </c>
       <c r="E33" t="n">
-        <v>11.77119030772405</v>
+        <v>11.60752999939119</v>
       </c>
       <c r="F33" t="n">
-        <v>1.134754849716328</v>
+        <v>1.118977827704806</v>
       </c>
     </row>
     <row r="34">
@@ -12416,16 +12416,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2673402449634645</v>
+        <v>0.275700172139106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07147080657712516</v>
+        <v>0.07601058491753269</v>
       </c>
       <c r="E34" t="n">
-        <v>9.595180925411004</v>
+        <v>9.600281092367686</v>
       </c>
       <c r="F34" t="n">
-        <v>1.597052629870989</v>
+        <v>1.597901517986207</v>
       </c>
     </row>
     <row r="35">
@@ -12436,16 +12436,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6104996558544893</v>
+        <v>0.6230404243288381</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3727098297984499</v>
+        <v>0.3881793703478588</v>
       </c>
       <c r="E35" t="n">
-        <v>22.39345580723799</v>
+        <v>22.33831878476353</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9843277277906808</v>
+        <v>0.9819041224071879</v>
       </c>
     </row>
     <row r="36">
@@ -12456,16 +12456,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2942464024449463</v>
+        <v>0.3054922492402969</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08658094535179335</v>
+        <v>0.09332551434589574</v>
       </c>
       <c r="E36" t="n">
-        <v>106.7926655202689</v>
+        <v>106.8761601829742</v>
       </c>
       <c r="F36" t="n">
-        <v>1.049559366292569</v>
+        <v>1.050379952658223</v>
       </c>
     </row>
     <row r="37">
@@ -12476,16 +12476,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.149947479025734</v>
+        <v>0.1601850332973985</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02248424646617295</v>
+        <v>0.02565924489248865</v>
       </c>
       <c r="E37" t="n">
-        <v>3.188197657945111</v>
+        <v>3.387137672906389</v>
       </c>
       <c r="F37" t="n">
-        <v>2.494026851065276</v>
+        <v>2.649651373851152</v>
       </c>
     </row>
     <row r="38">
@@ -12500,16 +12500,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.101983480476198</v>
+        <v>0.1429201849076442</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01040063029003904</v>
+        <v>0.02042617925403521</v>
       </c>
       <c r="E38" t="n">
-        <v>95.27790652832505</v>
+        <v>95.27699485318654</v>
       </c>
       <c r="F38" t="n">
-        <v>1.043188757609398</v>
+        <v>1.043178775764816</v>
       </c>
     </row>
     <row r="39">
@@ -12520,16 +12520,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4954860175071274</v>
+        <v>0.4877429829972</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2455063935450734</v>
+        <v>0.237893217463007</v>
       </c>
       <c r="E39" t="n">
-        <v>2.870522009231012</v>
+        <v>2.867885862317406</v>
       </c>
       <c r="F39" t="n">
-        <v>1.01312541502271</v>
+        <v>1.012195010229673</v>
       </c>
     </row>
     <row r="40">
@@ -12540,16 +12540,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.1486033157655609</v>
+        <v>-0.1422226426697298</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02208294545651898</v>
+        <v>0.02022728008796162</v>
       </c>
       <c r="E40" t="n">
-        <v>50.74089908840217</v>
+        <v>50.73924288266947</v>
       </c>
       <c r="F40" t="n">
-        <v>1.221249927916936</v>
+        <v>1.221210065770857</v>
       </c>
     </row>
     <row r="41">
@@ -12560,16 +12560,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.1950641517399052</v>
+        <v>-0.1918495673023743</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03805002329400876</v>
+        <v>0.03680625647410823</v>
       </c>
       <c r="E41" t="n">
-        <v>33.12472159353179</v>
+        <v>33.12378604063054</v>
       </c>
       <c r="F41" t="n">
-        <v>1.53279301961753</v>
+        <v>1.532749728417256</v>
       </c>
     </row>
     <row r="42">
@@ -12580,16 +12580,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.18674760112466</v>
+        <v>-0.1769173876341837</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03487466652581511</v>
+        <v>0.03129976204730405</v>
       </c>
       <c r="E42" t="n">
-        <v>13.65476530109867</v>
+        <v>13.65327651838116</v>
       </c>
       <c r="F42" t="n">
-        <v>1.316333415915681</v>
+        <v>1.316189895730831</v>
       </c>
     </row>
     <row r="43">
@@ -12600,16 +12600,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.1850570756608156</v>
+        <v>-0.1813855050579388</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03424612125213283</v>
+        <v>0.03290070144512355</v>
       </c>
       <c r="E43" t="n">
-        <v>10.20383689086811</v>
+        <v>10.20306467969122</v>
       </c>
       <c r="F43" t="n">
-        <v>1.698359277226186</v>
+        <v>1.698230747925859</v>
       </c>
     </row>
     <row r="44">
@@ -12620,16 +12620,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.4821997154663192</v>
+        <v>0.478500509280038</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2325165655957991</v>
+        <v>0.2289627373812559</v>
       </c>
       <c r="E44" t="n">
-        <v>23.52339037641298</v>
+        <v>23.5207269318088</v>
       </c>
       <c r="F44" t="n">
-        <v>1.03399518138079</v>
+        <v>1.033878106892695</v>
       </c>
     </row>
     <row r="45">
@@ -12640,16 +12640,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.08695285400619929</v>
+        <v>0.09049245526309399</v>
       </c>
       <c r="D45" t="n">
-        <v>0.007560798819823408</v>
+        <v>0.00818888445954306</v>
       </c>
       <c r="E45" t="n">
-        <v>107.9235759564024</v>
+        <v>107.9232127080546</v>
       </c>
       <c r="F45" t="n">
-        <v>1.060673965173488</v>
+        <v>1.060670395165156</v>
       </c>
     </row>
     <row r="46">
@@ -12660,16 +12660,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.493641573649648</v>
+        <v>0.4917541098488935</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2436820032353007</v>
+        <v>0.2418221045532776</v>
       </c>
       <c r="E46" t="n">
-        <v>1.288882120115505</v>
+        <v>1.288213002583942</v>
       </c>
       <c r="F46" t="n">
-        <v>1.008251984444984</v>
+        <v>1.007728554824465</v>
       </c>
     </row>
     <row r="47">
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.02218523605965259</v>
+        <v>0.01031719283366013</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0004921846990225082</v>
+        <v>0.0001064444679669283</v>
       </c>
       <c r="E47" t="n">
-        <v>95.33048853459613</v>
+        <v>95.32934315685351</v>
       </c>
       <c r="F47" t="n">
-        <v>1.043764473006527</v>
+        <v>1.043751932374309</v>
       </c>
     </row>
     <row r="48">
@@ -12704,16 +12704,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.5605887568296111</v>
+        <v>0.5468468134567217</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3142597542837688</v>
+        <v>0.2990414373877707</v>
       </c>
       <c r="E48" t="n">
-        <v>2.913247821115569</v>
+        <v>2.909623340057538</v>
       </c>
       <c r="F48" t="n">
-        <v>1.028205113334907</v>
+        <v>1.02692588472619</v>
       </c>
     </row>
     <row r="49">
@@ -12724,16 +12724,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.326875248136579</v>
+        <v>-0.32790148505935</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1068474278443501</v>
+        <v>0.1075193839041271</v>
       </c>
       <c r="E49" t="n">
-        <v>50.78628572114156</v>
+        <v>50.78446366403389</v>
       </c>
       <c r="F49" t="n">
-        <v>1.222342309466282</v>
+        <v>1.222298455550577</v>
       </c>
     </row>
     <row r="50">
@@ -12744,16 +12744,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>-0.3529247572629747</v>
+        <v>-0.3512792275517673</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1245558842891296</v>
+        <v>0.1233970957093663</v>
       </c>
       <c r="E50" t="n">
-        <v>33.16329411333161</v>
+        <v>33.16227511458155</v>
       </c>
       <c r="F50" t="n">
-        <v>1.534577900704946</v>
+        <v>1.534530748182723</v>
       </c>
     </row>
     <row r="51">
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.3724153198683389</v>
+        <v>-0.3695063723272262</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1386931704726371</v>
+        <v>0.1365349591904268</v>
       </c>
       <c r="E51" t="n">
-        <v>13.69822795289435</v>
+        <v>13.69674395514267</v>
       </c>
       <c r="F51" t="n">
-        <v>1.320523260240458</v>
+        <v>1.320380201331234</v>
       </c>
     </row>
     <row r="52">
@@ -12784,16 +12784,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.3387182627620521</v>
+        <v>-0.3365598929413993</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1147300615285426</v>
+        <v>0.1132725615367261</v>
       </c>
       <c r="E52" t="n">
-        <v>10.23922137777294</v>
+        <v>10.23846443896529</v>
       </c>
       <c r="F52" t="n">
-        <v>1.704248784501484</v>
+        <v>1.704122797183183</v>
       </c>
     </row>
     <row r="53">
@@ -12804,16 +12804,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.3532811594236077</v>
+        <v>0.3422034411479732</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1248075776036885</v>
+        <v>0.1171031951335143</v>
       </c>
       <c r="E53" t="n">
-        <v>23.57097129599133</v>
+        <v>23.56754058011684</v>
       </c>
       <c r="F53" t="n">
-        <v>1.036086650373245</v>
+        <v>1.035935849675466</v>
       </c>
     </row>
     <row r="54">
@@ -12824,16 +12824,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.1023893171150098</v>
+        <v>-0.1088928249101586</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01048357225927805</v>
+        <v>0.01185764731691445</v>
       </c>
       <c r="E54" t="n">
-        <v>107.9768005626149</v>
+        <v>107.976366498872</v>
       </c>
       <c r="F54" t="n">
-        <v>1.061197057126436</v>
+        <v>1.061192791143706</v>
       </c>
     </row>
     <row r="55">
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2884739706402747</v>
+        <v>0.2743092600941675</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08321723173696603</v>
+        <v>0.07524557017340958</v>
       </c>
       <c r="E55" t="n">
-        <v>1.339347119652226</v>
+        <v>1.338930660554937</v>
       </c>
       <c r="F55" t="n">
-        <v>1.047729167915692</v>
+        <v>1.047403385049495</v>
       </c>
     </row>
     <row r="56">
@@ -12868,16 +12868,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.4202023179193272</v>
+        <v>0.3677024752108224</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1765699879847752</v>
+        <v>0.1352051102761654</v>
       </c>
       <c r="E56" t="n">
-        <v>95.44531988932142</v>
+        <v>95.44426167432236</v>
       </c>
       <c r="F56" t="n">
-        <v>1.045021750613008</v>
+        <v>1.045010164317398</v>
       </c>
     </row>
     <row r="57">
@@ -12888,16 +12888,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.1849248070955591</v>
+        <v>0.1250656962380982</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03419718427932973</v>
+        <v>0.01564142837552025</v>
       </c>
       <c r="E57" t="n">
-        <v>3.024850689682209</v>
+        <v>3.023314558722634</v>
       </c>
       <c r="F57" t="n">
-        <v>1.067594361064309</v>
+        <v>1.067052197196224</v>
       </c>
     </row>
     <row r="58">
@@ -12908,16 +12908,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.07872212266542768</v>
+        <v>0.06784250283335991</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006197172596950642</v>
+        <v>0.004602605190694451</v>
       </c>
       <c r="E58" t="n">
-        <v>50.86354379191017</v>
+        <v>50.86206608900378</v>
       </c>
       <c r="F58" t="n">
-        <v>1.22420178407261</v>
+        <v>1.224166218195767</v>
       </c>
     </row>
     <row r="59">
@@ -12928,16 +12928,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.03506342234113349</v>
+        <v>-0.01707304576832727</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001229443586272699</v>
+        <v>0.0002914888918073968</v>
       </c>
       <c r="E59" t="n">
-        <v>33.21869538207867</v>
+        <v>33.21737765287887</v>
       </c>
       <c r="F59" t="n">
-        <v>1.537141504983813</v>
+        <v>1.537080529192258</v>
       </c>
     </row>
     <row r="60">
@@ -12948,16 +12948,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.04491171446894124</v>
+        <v>0.04900287135620049</v>
       </c>
       <c r="D60" t="n">
-        <v>0.002017062096539706</v>
+        <v>0.002401281401152335</v>
       </c>
       <c r="E60" t="n">
-        <v>13.76529650204401</v>
+        <v>13.76384782188319</v>
       </c>
       <c r="F60" t="n">
-        <v>1.326988737343574</v>
+        <v>1.326849083086426</v>
       </c>
     </row>
     <row r="61">
@@ -12968,16 +12968,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.04655538842591772</v>
+        <v>-0.02601794561091793</v>
       </c>
       <c r="D61" t="n">
-        <v>0.002167404191488073</v>
+        <v>0.0006769334938126842</v>
       </c>
       <c r="E61" t="n">
-        <v>10.28668872792412</v>
+        <v>10.28547254380103</v>
       </c>
       <c r="F61" t="n">
-        <v>1.712149402215859</v>
+        <v>1.711946976637094</v>
       </c>
     </row>
     <row r="62">
@@ -12988,16 +12988,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.4471150230594206</v>
+        <v>0.3922892525003667</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1999118438454263</v>
+        <v>0.1538908576272966</v>
       </c>
       <c r="E62" t="n">
-        <v>23.6792869703627</v>
+        <v>23.67754718847242</v>
       </c>
       <c r="F62" t="n">
-        <v>1.040847778917042</v>
+        <v>1.040771304987799</v>
       </c>
     </row>
     <row r="63">
@@ -13008,16 +13008,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.02772094168789487</v>
+        <v>-0.07735129015718123</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0007684506080636664</v>
+        <v>0.005983222088980444</v>
       </c>
       <c r="E63" t="n">
-        <v>108.0896422612418</v>
+        <v>108.0887615145294</v>
       </c>
       <c r="F63" t="n">
-        <v>1.062306066449551</v>
+        <v>1.062297410462206</v>
       </c>
     </row>
     <row r="64">
@@ -13028,16 +13028,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1264010594994779</v>
+        <v>0.07152071022883133</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01597722784259058</v>
+        <v>0.00511521199163646</v>
       </c>
       <c r="E64" t="n">
-        <v>1.451587139717149</v>
+        <v>1.45081516198863</v>
       </c>
       <c r="F64" t="n">
-        <v>1.135531008905201</v>
+        <v>1.134927114984586</v>
       </c>
     </row>
     <row r="65">
@@ -13052,16 +13052,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.2584892767212668</v>
+        <v>0.3453587833375285</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06681670617988363</v>
+        <v>0.1192726892283779</v>
       </c>
       <c r="E65" t="n">
-        <v>95.4424893578186</v>
+        <v>95.4428666301894</v>
       </c>
       <c r="F65" t="n">
-        <v>1.044990759392175</v>
+        <v>1.044994890111563</v>
       </c>
     </row>
     <row r="66">
@@ -13072,16 +13072,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.1143962171137557</v>
+        <v>-0.1200896102012506</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01308649448993751</v>
+        <v>0.01442151447828832</v>
       </c>
       <c r="E66" t="n">
-        <v>3.027336479969942</v>
+        <v>3.027627161079899</v>
       </c>
       <c r="F66" t="n">
-        <v>1.068471698812921</v>
+        <v>1.068574292145847</v>
       </c>
     </row>
     <row r="67">
@@ -13092,16 +13092,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.7433594097009074</v>
+        <v>0.7753662870919269</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5525832119908813</v>
+        <v>0.6011928791587204</v>
       </c>
       <c r="E67" t="n">
-        <v>50.86053359584119</v>
+        <v>50.86012726741912</v>
       </c>
       <c r="F67" t="n">
-        <v>1.224129333607634</v>
+        <v>1.224119553951281</v>
       </c>
     </row>
     <row r="68">
@@ -13112,16 +13112,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.3644756403516884</v>
+        <v>0.3846747653681968</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1328424924097733</v>
+        <v>0.1479746751110773</v>
       </c>
       <c r="E68" t="n">
-        <v>33.21632209626441</v>
+        <v>33.21604956513372</v>
       </c>
       <c r="F68" t="n">
-        <v>1.537031685013874</v>
+        <v>1.537019074075739</v>
       </c>
     </row>
     <row r="69">
@@ -13132,16 +13132,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.6163134907659559</v>
+        <v>0.6531711437481525</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3798423189001178</v>
+        <v>0.4266325430252696</v>
       </c>
       <c r="E69" t="n">
-        <v>13.76228013256785</v>
+        <v>13.76181210177585</v>
       </c>
       <c r="F69" t="n">
-        <v>1.326697956224407</v>
+        <v>1.326652837574793</v>
       </c>
     </row>
     <row r="70">
@@ -13152,16 +13152,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.2987128001270434</v>
+        <v>0.3194288826921663</v>
       </c>
       <c r="D70" t="n">
-        <v>0.089229336959739</v>
+        <v>0.1020348110979657</v>
       </c>
       <c r="E70" t="n">
-        <v>10.28447281384197</v>
+        <v>10.28419832924776</v>
       </c>
       <c r="F70" t="n">
-        <v>1.711780578382315</v>
+        <v>1.711734892287759</v>
       </c>
     </row>
     <row r="71">
@@ -13172,16 +13172,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.4590225010262848</v>
+        <v>0.4741795412785386</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2107016564484256</v>
+        <v>0.2248462373671251</v>
       </c>
       <c r="E71" t="n">
-        <v>23.68061938850115</v>
+        <v>23.68068830166759</v>
       </c>
       <c r="F71" t="n">
-        <v>1.040906346747303</v>
+        <v>1.040909375897476</v>
       </c>
     </row>
     <row r="72">
@@ -13192,16 +13192,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1931858517496686</v>
+        <v>0.2333851980237037</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03732077331624489</v>
+        <v>0.05446865065656337</v>
       </c>
       <c r="E72" t="n">
-        <v>108.0855752442677</v>
+        <v>108.0860644015603</v>
       </c>
       <c r="F72" t="n">
-        <v>1.062266095766758</v>
+        <v>1.062270903209438</v>
       </c>
     </row>
     <row r="73">
@@ -13212,16 +13212,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.01294609065537684</v>
+        <v>0.04197945398374504</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0001676012632572359</v>
+        <v>0.001762274556773365</v>
       </c>
       <c r="E73" t="n">
-        <v>1.449029949786674</v>
+        <v>1.449504101216453</v>
       </c>
       <c r="F73" t="n">
-        <v>1.133530599572365</v>
+        <v>1.133901513337512</v>
       </c>
     </row>
     <row r="74">
@@ -13236,16 +13236,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.03620886649126719</v>
+        <v>0.07493086966487369</v>
       </c>
       <c r="D74" t="n">
-        <v>0.001311082012582411</v>
+        <v>0.005614635228734285</v>
       </c>
       <c r="E74" t="n">
-        <v>95.30361615551283</v>
+        <v>95.30254656805094</v>
       </c>
       <c r="F74" t="n">
-        <v>1.043470249877878</v>
+        <v>1.043458539066251</v>
       </c>
     </row>
     <row r="75">
@@ -13256,16 +13256,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.5354379065472936</v>
+        <v>0.5248252207723324</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2866937517677485</v>
+        <v>0.2754415123587275</v>
       </c>
       <c r="E75" t="n">
-        <v>2.89117783361791</v>
+        <v>2.887966877360325</v>
       </c>
       <c r="F75" t="n">
-        <v>1.020415705982792</v>
+        <v>1.019282427303644</v>
       </c>
     </row>
     <row r="76">
@@ -13276,16 +13276,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>-0.2411055079308132</v>
+        <v>-0.2374916052394093</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05813186595457542</v>
+        <v>0.05640226255919144</v>
       </c>
       <c r="E76" t="n">
-        <v>50.76301669890105</v>
+        <v>50.76118834481752</v>
       </c>
       <c r="F76" t="n">
-        <v>1.221782262398838</v>
+        <v>1.221738256925288</v>
       </c>
     </row>
     <row r="77">
@@ -13296,16 +13296,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.280879827523805</v>
+        <v>-0.278241572733671</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0788934775098025</v>
+        <v>0.07741837279730676</v>
       </c>
       <c r="E77" t="n">
-        <v>33.14368108480554</v>
+        <v>33.14266566140055</v>
       </c>
       <c r="F77" t="n">
-        <v>1.533670339470554</v>
+        <v>1.533623352391652</v>
       </c>
     </row>
     <row r="78">
@@ -13316,16 +13316,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.2838424676646147</v>
+        <v>-0.2767037095761136</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08056654644993783</v>
+        <v>0.07656494289318221</v>
       </c>
       <c r="E78" t="n">
-        <v>13.67597427876558</v>
+        <v>13.67440903835804</v>
       </c>
       <c r="F78" t="n">
-        <v>1.31837798317149</v>
+        <v>1.318227092386701</v>
       </c>
     </row>
     <row r="79">
@@ -13336,16 +13336,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.2687433277605503</v>
+        <v>-0.2657064465708636</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07222297621581458</v>
+        <v>0.07059991574931523</v>
       </c>
       <c r="E79" t="n">
-        <v>10.22125177967514</v>
+        <v>10.22045997961553</v>
       </c>
       <c r="F79" t="n">
-        <v>1.701257867068774</v>
+        <v>1.701126077332097</v>
       </c>
     </row>
     <row r="80">
@@ -13356,16 +13356,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.4191093786017607</v>
+        <v>0.4126711271952282</v>
       </c>
       <c r="D80" t="n">
-        <v>0.175652671231954</v>
+        <v>0.1702974592205802</v>
       </c>
       <c r="E80" t="n">
-        <v>23.54652409521348</v>
+        <v>23.5433898623566</v>
       </c>
       <c r="F80" t="n">
-        <v>1.035012048141252</v>
+        <v>1.034874279664026</v>
       </c>
     </row>
     <row r="81">
@@ -13376,16 +13376,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.01318661839392307</v>
+        <v>-0.0141435693610894</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0001738869046669502</v>
+        <v>0.0002000405542719438</v>
       </c>
       <c r="E81" t="n">
-        <v>107.9496169247629</v>
+        <v>107.9491909042276</v>
       </c>
       <c r="F81" t="n">
-        <v>1.060929896066465</v>
+        <v>1.060925709132458</v>
       </c>
     </row>
     <row r="82">
@@ -13396,16 +13396,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.3908921666609314</v>
+        <v>0.3837142607326466</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1527966859568774</v>
+        <v>0.1472366338896015</v>
       </c>
       <c r="E82" t="n">
-        <v>1.313544049400879</v>
+        <v>1.312968633718544</v>
       </c>
       <c r="F82" t="n">
-        <v>1.027544236819462</v>
+        <v>1.027094107211377</v>
       </c>
     </row>
     <row r="83">
@@ -13420,16 +13420,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.4369673862643707</v>
+        <v>0.422347013656979</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1909404966587159</v>
+        <v>0.1783769999449686</v>
       </c>
       <c r="E83" t="n">
-        <v>95.41886329799389</v>
+        <v>95.41902152859578</v>
       </c>
       <c r="F83" t="n">
-        <v>1.044732079905043</v>
+        <v>1.044733812356888</v>
       </c>
     </row>
     <row r="84">
@@ -13440,16 +13440,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.5438516540466921</v>
+        <v>-0.4949129075512237</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2957746216093229</v>
+        <v>0.2449387860608062</v>
       </c>
       <c r="E84" t="n">
-        <v>3.006919997047533</v>
+        <v>3.007501303609401</v>
       </c>
       <c r="F84" t="n">
-        <v>1.061265881310894</v>
+        <v>1.06147104833273</v>
       </c>
     </row>
     <row r="85">
@@ -13460,16 +13460,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.9318316445003841</v>
+        <v>0.9317057493059555</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8683102136922903</v>
+        <v>0.8680756032897722</v>
       </c>
       <c r="E85" t="n">
-        <v>50.84374566509486</v>
+        <v>50.84391891284434</v>
       </c>
       <c r="F85" t="n">
-        <v>1.223725275745394</v>
+        <v>1.223729445533579</v>
       </c>
     </row>
     <row r="86">
@@ -13480,16 +13480,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.8832265710140693</v>
+        <v>0.8641248449573203</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7800891757452706</v>
+        <v>0.7467117476725129</v>
       </c>
       <c r="E86" t="n">
-        <v>33.20086524493703</v>
+        <v>33.20094651766032</v>
       </c>
       <c r="F86" t="n">
-        <v>1.536316444170174</v>
+        <v>1.536320204934249</v>
       </c>
     </row>
     <row r="87">
@@ -13500,16 +13500,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9881823670372423</v>
+        <v>0.9844340176477966</v>
       </c>
       <c r="D87" t="n">
-        <v>0.976504390523327</v>
+        <v>0.9691103351021829</v>
       </c>
       <c r="E87" t="n">
-        <v>13.74602331010693</v>
+        <v>13.7461041010175</v>
       </c>
       <c r="F87" t="n">
-        <v>1.325130781822648</v>
+        <v>1.325138570149502</v>
       </c>
     </row>
     <row r="88">
@@ -13520,16 +13520,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.8596164559797761</v>
+        <v>0.8416153346988717</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7389404513912303</v>
+        <v>0.7083163716002943</v>
       </c>
       <c r="E88" t="n">
-        <v>10.26999228173742</v>
+        <v>10.2700163438455</v>
       </c>
       <c r="F88" t="n">
-        <v>1.709370392262921</v>
+        <v>1.709374397237219</v>
       </c>
     </row>
     <row r="89">
@@ -13540,16 +13540,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.4442453270212054</v>
+        <v>0.4673700761090115</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1973539105801777</v>
+        <v>0.2184347880421433</v>
       </c>
       <c r="E89" t="n">
-        <v>23.65967057627729</v>
+        <v>23.66014306989599</v>
       </c>
       <c r="F89" t="n">
-        <v>1.039985519836364</v>
+        <v>1.040006288786637</v>
       </c>
     </row>
     <row r="90">
@@ -13560,16 +13560,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.6789733175670263</v>
+        <v>0.6719689253869812</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4610047659679742</v>
+        <v>0.4515422366857344</v>
       </c>
       <c r="E90" t="n">
-        <v>108.0614996468094</v>
+        <v>108.0615626752873</v>
       </c>
       <c r="F90" t="n">
-        <v>1.062029480558323</v>
+        <v>1.062030100002824</v>
       </c>
     </row>
     <row r="91">
@@ -13580,16 +13580,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.6155279654480892</v>
+        <v>0.6262215436510605</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3788746762486641</v>
+        <v>0.3921534217327172</v>
       </c>
       <c r="E91" t="n">
-        <v>1.425408269561472</v>
+        <v>1.425351276750241</v>
       </c>
       <c r="F91" t="n">
-        <v>1.115052101351869</v>
+        <v>1.11500751766642</v>
       </c>
     </row>
     <row r="92">
@@ -13604,16 +13604,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.2530218510211969</v>
+        <v>0.2525923809755817</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06402005709419276</v>
+        <v>0.0638029109269134</v>
       </c>
       <c r="E92" t="n">
-        <v>78.86260699832513</v>
+        <v>78.94967403859565</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8634592007115891</v>
+        <v>0.864412489473675</v>
       </c>
     </row>
     <row r="93">
@@ -13624,16 +13624,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.4902127344219087</v>
+        <v>-0.4430245158503338</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2403085249894049</v>
+        <v>0.1962707216444227</v>
       </c>
       <c r="E93" t="n">
-        <v>15.67583470243323</v>
+        <v>15.45381371634753</v>
       </c>
       <c r="F93" t="n">
-        <v>5.532647542035258</v>
+        <v>5.454287194005012</v>
       </c>
     </row>
     <row r="94">
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.7106467042931142</v>
+        <v>0.7432502119203731</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5050187383226649</v>
+        <v>0.5524208775196797</v>
       </c>
       <c r="E94" t="n">
-        <v>35.37792917449546</v>
+        <v>35.33752420324202</v>
       </c>
       <c r="F94" t="n">
-        <v>0.851488527606293</v>
+        <v>0.8505160464497257</v>
       </c>
     </row>
     <row r="95">
@@ -13664,16 +13664,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.5678258366973898</v>
+        <v>0.5717395102796562</v>
       </c>
       <c r="D95" t="n">
-        <v>0.322426180821091</v>
+        <v>0.3268860676148211</v>
       </c>
       <c r="E95" t="n">
-        <v>22.99281080090932</v>
+        <v>22.92780816231778</v>
       </c>
       <c r="F95" t="n">
-        <v>1.063955203291497</v>
+        <v>1.060947311122245</v>
       </c>
     </row>
     <row r="96">
@@ -13684,16 +13684,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.7482609974676874</v>
+        <v>0.7719471335936071</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5598945203313388</v>
+        <v>0.5959023770633867</v>
       </c>
       <c r="E96" t="n">
-        <v>9.258822548869443</v>
+        <v>8.830682731744039</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8925600143511674</v>
+        <v>0.8512868957336799</v>
       </c>
     </row>
     <row r="97">
@@ -13704,16 +13704,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.5432717619858083</v>
+        <v>0.5455518121911986</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2951442073711648</v>
+        <v>0.297626779785101</v>
       </c>
       <c r="E97" t="n">
-        <v>13.31943007964447</v>
+        <v>13.04513236110345</v>
       </c>
       <c r="F97" t="n">
-        <v>2.216928581382409</v>
+        <v>2.171273591010793</v>
       </c>
     </row>
     <row r="98">
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.07932505234832743</v>
+        <v>0.1449504810565173</v>
       </c>
       <c r="D98" t="n">
-        <v>0.00629246393006488</v>
+        <v>0.02101064195851579</v>
       </c>
       <c r="E98" t="n">
-        <v>9.853493106445489</v>
+        <v>9.942188952184331</v>
       </c>
       <c r="F98" t="n">
-        <v>0.433120576107494</v>
+        <v>0.4370192946015091</v>
       </c>
     </row>
     <row r="99">
@@ -13744,16 +13744,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.3435223051238016</v>
+        <v>0.3600657126196631</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1180075741175702</v>
+        <v>0.1296473174043058</v>
       </c>
       <c r="E99" t="n">
-        <v>91.4934367249942</v>
+        <v>91.52740408368554</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8991983953316383</v>
+        <v>0.8995322268666883</v>
       </c>
     </row>
     <row r="100">
@@ -13764,16 +13764,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.07743345467729046</v>
+        <v>0.1188031974143501</v>
       </c>
       <c r="D100" t="n">
-        <v>0.005995939903259987</v>
+        <v>0.01411419971587305</v>
       </c>
       <c r="E100" t="n">
-        <v>16.90949775616151</v>
+        <v>16.87796296543895</v>
       </c>
       <c r="F100" t="n">
-        <v>13.22776877926585</v>
+        <v>13.20310010334207</v>
       </c>
     </row>
     <row r="101">
@@ -13788,16 +13788,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.2746517597454976</v>
+        <v>0.2522962335784749</v>
       </c>
       <c r="D101" t="n">
-        <v>0.07543358913129854</v>
+        <v>0.06365338947788438</v>
       </c>
       <c r="E101" t="n">
-        <v>94.84107048349829</v>
+        <v>94.8461850940667</v>
       </c>
       <c r="F101" t="n">
-        <v>1.038405881206186</v>
+        <v>1.038461880591971</v>
       </c>
     </row>
     <row r="102">
@@ -13808,16 +13808,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-0.6204517607694225</v>
+        <v>-0.5887035688958491</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3849603874418769</v>
+        <v>0.3465718920307097</v>
       </c>
       <c r="E102" t="n">
-        <v>2.501560938196256</v>
+        <v>2.514789735756173</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8829038605398549</v>
+        <v>0.8875728479139434</v>
       </c>
     </row>
     <row r="103">
@@ -13828,16 +13828,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.6857546669021651</v>
+        <v>0.7063748328590863</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4702594631780995</v>
+        <v>0.498965404496702</v>
       </c>
       <c r="E103" t="n">
-        <v>50.30676376915709</v>
+        <v>50.31292607889304</v>
       </c>
       <c r="F103" t="n">
-        <v>1.210801005314864</v>
+        <v>1.210949321967822</v>
       </c>
     </row>
     <row r="104">
@@ -13848,16 +13848,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.6508552684629796</v>
+        <v>0.6605489645660703</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4236125804860172</v>
+        <v>0.4363249345893075</v>
       </c>
       <c r="E104" t="n">
-        <v>32.75127929282709</v>
+        <v>32.75483273222791</v>
       </c>
       <c r="F104" t="n">
-        <v>1.515512579987757</v>
+        <v>1.515677009659832</v>
       </c>
     </row>
     <row r="105">
@@ -13868,16 +13868,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.7422262135784962</v>
+        <v>0.7590354413645142</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5508997521230715</v>
+        <v>0.576134801247423</v>
       </c>
       <c r="E105" t="n">
-        <v>13.23773060770856</v>
+        <v>13.24203564151106</v>
       </c>
       <c r="F105" t="n">
-        <v>1.276130842645426</v>
+        <v>1.276545852330758</v>
       </c>
     </row>
     <row r="106">
@@ -13888,16 +13888,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.6292940830666829</v>
+        <v>0.639020576242737</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3960110429827375</v>
+        <v>0.4083472968615997</v>
       </c>
       <c r="E106" t="n">
-        <v>9.86582041738057</v>
+        <v>9.867755041025454</v>
       </c>
       <c r="F106" t="n">
-        <v>1.642098733301126</v>
+        <v>1.642420738253809</v>
       </c>
     </row>
     <row r="107">
@@ -13908,16 +13908,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.006561379533552458</v>
+        <v>0.03481250207869946</v>
       </c>
       <c r="D107" t="n">
-        <v>4.30517013833214e-05</v>
+        <v>0.00121191030097945</v>
       </c>
       <c r="E107" t="n">
-        <v>23.09134600103302</v>
+        <v>23.10311017919919</v>
       </c>
       <c r="F107" t="n">
-        <v>1.015004219825627</v>
+        <v>1.015521326558206</v>
       </c>
     </row>
     <row r="108">
@@ -13928,16 +13928,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.4060690959752689</v>
+        <v>0.4186056163030897</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1648921107061722</v>
+        <v>0.1752306620004895</v>
       </c>
       <c r="E108" t="n">
-        <v>107.4856836007441</v>
+        <v>107.4887819730588</v>
       </c>
       <c r="F108" t="n">
-        <v>1.056370354798468</v>
+        <v>1.056400805632028</v>
       </c>
     </row>
     <row r="109">
@@ -13948,16 +13948,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.09562219732427762</v>
+        <v>0.1292365924703844</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00914360462112309</v>
+        <v>0.01670209683335623</v>
       </c>
       <c r="E109" t="n">
-        <v>0.951187839621525</v>
+        <v>0.9515718631203128</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7440843595474772</v>
+        <v>0.74438476906413</v>
       </c>
     </row>
     <row r="110">
@@ -13972,16 +13972,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.3308581683790943</v>
+        <v>0.3695260920034813</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1094671275831691</v>
+        <v>0.1365495326713653</v>
       </c>
       <c r="E110" t="n">
-        <v>96.72987082163897</v>
+        <v>96.73619255931354</v>
       </c>
       <c r="F110" t="n">
-        <v>1.059086176879259</v>
+        <v>1.059155392985185</v>
       </c>
     </row>
     <row r="111">
@@ -13992,16 +13992,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.1804518587752843</v>
+        <v>0.1774380259700302</v>
       </c>
       <c r="D111" t="n">
-        <v>0.03256287333545514</v>
+        <v>0.0314842530601411</v>
       </c>
       <c r="E111" t="n">
-        <v>4.524964710130028</v>
+        <v>4.541220762277339</v>
       </c>
       <c r="F111" t="n">
-        <v>1.597046368281186</v>
+        <v>1.602783798450826</v>
       </c>
     </row>
     <row r="112">
@@ -14012,16 +14012,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.4142978724627684</v>
+        <v>0.4511819414278284</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1716427271271764</v>
+        <v>0.2035651442705843</v>
       </c>
       <c r="E112" t="n">
-        <v>52.08046805615115</v>
+        <v>52.07998324257036</v>
       </c>
       <c r="F112" t="n">
-        <v>1.25349114820854</v>
+        <v>1.253479479543593</v>
       </c>
     </row>
     <row r="113">
@@ -14032,16 +14032,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.3538063743071784</v>
+        <v>0.3732021273115079</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1251789505003913</v>
+        <v>0.139279827829835</v>
       </c>
       <c r="E113" t="n">
-        <v>34.17859395885804</v>
+        <v>34.17732073771962</v>
       </c>
       <c r="F113" t="n">
-        <v>1.581559262092314</v>
+        <v>1.581500345839452</v>
       </c>
     </row>
     <row r="114">
@@ -14052,16 +14052,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.4062654799802973</v>
+        <v>0.4475076200993082</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1650516402236215</v>
+        <v>0.2002630700469468</v>
       </c>
       <c r="E114" t="n">
-        <v>14.9086272071142</v>
+        <v>14.90633426467177</v>
       </c>
       <c r="F114" t="n">
-        <v>1.437206992973734</v>
+        <v>1.436985950964502</v>
       </c>
     </row>
     <row r="115">
@@ -14072,16 +14072,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.3498587373423135</v>
+        <v>0.3697451235558962</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1224011360947579</v>
+        <v>0.136711456393365</v>
       </c>
       <c r="E115" t="n">
-        <v>11.19662232323748</v>
+        <v>11.19570729717868</v>
       </c>
       <c r="F115" t="n">
-        <v>1.863601662751627</v>
+        <v>1.863449362885166</v>
       </c>
     </row>
     <row r="116">
@@ -14092,16 +14092,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.7650835753947995</v>
+        <v>0.7746146070114357</v>
       </c>
       <c r="D116" t="n">
-        <v>0.58535287733889</v>
+        <v>0.6000277893954812</v>
       </c>
       <c r="E116" t="n">
-        <v>25.13006822587498</v>
+        <v>25.13914972304852</v>
       </c>
       <c r="F116" t="n">
-        <v>1.104618383554944</v>
+        <v>1.105017570243891</v>
       </c>
     </row>
     <row r="117">
@@ -14112,16 +14112,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.5111005832909503</v>
+        <v>0.5316217156531086</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2612238062403496</v>
+        <v>0.2826216485539546</v>
       </c>
       <c r="E117" t="n">
-        <v>109.3250118544037</v>
+        <v>109.3307844729502</v>
       </c>
       <c r="F117" t="n">
-        <v>1.074447290952371</v>
+        <v>1.074504024304179</v>
       </c>
     </row>
     <row r="118">
@@ -14132,16 +14132,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.8112902458578453</v>
+        <v>0.8223951902907425</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6581918630240826</v>
+        <v>0.6763338490133464</v>
       </c>
       <c r="E118" t="n">
-        <v>2.692539891959244</v>
+        <v>2.702835084887355</v>
       </c>
       <c r="F118" t="n">
-        <v>2.106289354857296</v>
+        <v>2.114342960798453</v>
       </c>
     </row>
     <row r="119">
@@ -14156,16 +14156,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.3317104548521826</v>
+        <v>0.3635916527946091</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1100318258582419</v>
+        <v>0.1321988899819156</v>
       </c>
       <c r="E119" t="n">
-        <v>94.726511470369</v>
+        <v>94.72765860083135</v>
       </c>
       <c r="F119" t="n">
-        <v>1.037151585441996</v>
+        <v>1.037164145264577</v>
       </c>
     </row>
     <row r="120">
@@ -14176,16 +14176,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.195964708547377</v>
+        <v>0.1873888936821263</v>
       </c>
       <c r="D120" t="n">
-        <v>0.03840216699605841</v>
+        <v>0.03511459747541126</v>
       </c>
       <c r="E120" t="n">
-        <v>2.371581923224074</v>
+        <v>2.374151850406661</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8370289140790851</v>
+        <v>0.8379359472023511</v>
       </c>
     </row>
     <row r="121">
@@ -14196,16 +14196,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.5578071461734406</v>
+        <v>0.5719659325567444</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3111488123221581</v>
+        <v>0.3271450280055064</v>
       </c>
       <c r="E121" t="n">
-        <v>50.26706968399907</v>
+        <v>50.26682685613445</v>
       </c>
       <c r="F121" t="n">
-        <v>1.209845634016585</v>
+        <v>1.209839789549548</v>
       </c>
     </row>
     <row r="122">
@@ -14216,16 +14216,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.3755874055224803</v>
+        <v>0.3865652092318083</v>
       </c>
       <c r="D122" t="n">
-        <v>0.141065899187108</v>
+        <v>0.1494326609884318</v>
       </c>
       <c r="E122" t="n">
-        <v>32.74422277968759</v>
+        <v>32.74368334013384</v>
       </c>
       <c r="F122" t="n">
-        <v>1.515186051233318</v>
+        <v>1.515161089538768</v>
       </c>
     </row>
     <row r="123">
@@ -14236,16 +14236,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.5376104879313451</v>
+        <v>0.5575187255608762</v>
       </c>
       <c r="D123" t="n">
-        <v>0.289025036733779</v>
+        <v>0.3108271293510237</v>
       </c>
       <c r="E123" t="n">
-        <v>13.21751206276435</v>
+        <v>13.21639892076433</v>
       </c>
       <c r="F123" t="n">
-        <v>1.274181754122527</v>
+        <v>1.274074446089107</v>
       </c>
     </row>
     <row r="124">
@@ -14256,16 +14256,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.3636306782272363</v>
+        <v>0.3759717355415445</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1322272701479999</v>
+        <v>0.1413547459261211</v>
       </c>
       <c r="E124" t="n">
-        <v>9.870568172744841</v>
+        <v>9.869497170743852</v>
       </c>
       <c r="F124" t="n">
-        <v>1.642888964902743</v>
+        <v>1.642710703901145</v>
       </c>
     </row>
     <row r="125">
@@ -14276,16 +14276,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.8253539066210879</v>
+        <v>0.8146981740547944</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6812090711746916</v>
+        <v>0.6637331148082163</v>
       </c>
       <c r="E125" t="n">
-        <v>22.98670639604783</v>
+        <v>22.98828169215506</v>
       </c>
       <c r="F125" t="n">
-        <v>1.010404676749355</v>
+        <v>1.010473920534288</v>
       </c>
     </row>
     <row r="126">
@@ -14296,16 +14296,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.5140966671896736</v>
+        <v>0.5281573152603019</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2642953832155298</v>
+        <v>0.2789501496629701</v>
       </c>
       <c r="E126" t="n">
-        <v>107.3758638440737</v>
+        <v>107.3768785705894</v>
       </c>
       <c r="F126" t="n">
-        <v>1.055291045150601</v>
+        <v>1.055301017892771</v>
       </c>
     </row>
     <row r="127">
@@ -14316,16 +14316,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.806600223104695</v>
+        <v>0.8105115036742818</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6506039199125436</v>
+        <v>0.6569288975883452</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8276095246772659</v>
+        <v>0.8257693909624743</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6474129267358012</v>
+        <v>0.6459734479497843</v>
       </c>
     </row>
     <row r="128">
@@ -14340,16 +14340,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.3013128863856805</v>
+        <v>0.2640370669745546</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09078945550207007</v>
+        <v>0.06971557273652543</v>
       </c>
       <c r="E128" t="n">
-        <v>95.31650636362505</v>
+        <v>95.31491549528273</v>
       </c>
       <c r="F128" t="n">
-        <v>1.04361138354334</v>
+        <v>1.043593965276818</v>
       </c>
     </row>
     <row r="129">
@@ -14360,16 +14360,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.4936852875245442</v>
+        <v>0.5591053864153762</v>
       </c>
       <c r="D129" t="n">
-        <v>0.2437251631181918</v>
+        <v>0.3125988331186871</v>
       </c>
       <c r="E129" t="n">
-        <v>2.901246952696855</v>
+        <v>2.89418224594659</v>
       </c>
       <c r="F129" t="n">
-        <v>1.023969512716537</v>
+        <v>1.021476086804679</v>
       </c>
     </row>
     <row r="130">
@@ -14380,16 +14380,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.05050410424996958</v>
+        <v>-0.0669026491991366</v>
       </c>
       <c r="D130" t="n">
-        <v>0.002550664546091792</v>
+        <v>0.004475964469862728</v>
       </c>
       <c r="E130" t="n">
-        <v>50.76717054270855</v>
+        <v>50.76666427843292</v>
       </c>
       <c r="F130" t="n">
-        <v>1.22188223858258</v>
+        <v>1.221870053634713</v>
       </c>
     </row>
     <row r="131">
@@ -14400,16 +14400,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>-0.135222084848873</v>
+        <v>-0.2072660267086982</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0182850122308758</v>
+        <v>0.04295920582761079</v>
       </c>
       <c r="E131" t="n">
-        <v>33.14669049205922</v>
+        <v>33.15179748233797</v>
       </c>
       <c r="F131" t="n">
-        <v>1.533809594933234</v>
+        <v>1.53404591266434</v>
       </c>
     </row>
     <row r="132">
@@ -14420,16 +14420,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-0.1008555723659041</v>
+        <v>-0.1317959975740524</v>
       </c>
       <c r="D132" t="n">
-        <v>0.01017184647725412</v>
+        <v>0.01737018497653963</v>
       </c>
       <c r="E132" t="n">
-        <v>13.67922755739252</v>
+        <v>13.68057521031523</v>
       </c>
       <c r="F132" t="n">
-        <v>1.318691602576399</v>
+        <v>1.31882151770391</v>
       </c>
     </row>
     <row r="133">
@@ -14440,16 +14440,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-0.1315876363774462</v>
+        <v>-0.2062349310323321</v>
       </c>
       <c r="D133" t="n">
-        <v>0.017315306047403</v>
+        <v>0.04253284677791082</v>
       </c>
       <c r="E133" t="n">
-        <v>10.22342753873125</v>
+        <v>10.22940063659486</v>
       </c>
       <c r="F133" t="n">
-        <v>1.701620007371237</v>
+        <v>1.702614188901082</v>
       </c>
     </row>
     <row r="134">
@@ -14460,16 +14460,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.5703858490278231</v>
+        <v>0.5754048020638607</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3253400167711906</v>
+        <v>0.3310906862381507</v>
       </c>
       <c r="E134" t="n">
-        <v>23.55382881560955</v>
+        <v>23.54862391387943</v>
       </c>
       <c r="F134" t="n">
-        <v>1.035333134752068</v>
+        <v>1.035104347862832</v>
       </c>
     </row>
     <row r="135">
@@ -14480,16 +14480,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.05888943785014089</v>
+        <v>-0.009496166865411909</v>
       </c>
       <c r="D135" t="n">
-        <v>0.003467965890305616</v>
+        <v>9.017718513574685e-05</v>
       </c>
       <c r="E135" t="n">
-        <v>107.9649370322509</v>
+        <v>107.9650086181892</v>
       </c>
       <c r="F135" t="n">
-        <v>1.061080462233424</v>
+        <v>1.061081165780729</v>
       </c>
     </row>
     <row r="136">
@@ -14500,16 +14500,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.4517448090298276</v>
+        <v>0.3899398794648677</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2040733724853953</v>
+        <v>0.1520531095970755</v>
       </c>
       <c r="E136" t="n">
-        <v>1.326960647039264</v>
+        <v>1.325511945015697</v>
       </c>
       <c r="F136" t="n">
-        <v>1.03803961958743</v>
+        <v>1.036906345514235</v>
       </c>
     </row>
   </sheetData>

--- a/Results/metrics_summary_sar.xlsx
+++ b/Results/metrics_summary_sar.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Location_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Location_3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Location_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Location_5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Location_4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.6157831284763854</v>
+        <v>-0.6157831284763855</v>
       </c>
       <c r="D3" t="n">
         <v>0.3791888613161647</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.369603809152908</v>
+        <v>-0.3696038091529081</v>
       </c>
       <c r="D4" t="n">
         <v>0.1366069757403393</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.6190260097983552</v>
+        <v>-0.6190260097983553</v>
       </c>
       <c r="D6" t="n">
         <v>0.3831932008068735</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2661040796248838</v>
+        <v>-0.2661040796248839</v>
       </c>
       <c r="D7" t="n">
         <v>0.07081138119300651</v>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4542417630388496</v>
+        <v>-0.4542417630388497</v>
       </c>
       <c r="D9" t="n">
         <v>0.2063355792886424</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.02138129673244565</v>
+        <v>-0.02138129673244571</v>
       </c>
       <c r="D10" t="n">
         <v>0.0004571598499608934</v>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4956728910689745</v>
+        <v>0.4956728910689746</v>
       </c>
       <c r="D11" t="n">
         <v>0.2456916149406755</v>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6427032170728496</v>
+        <v>0.6427032170728498</v>
       </c>
       <c r="D12" t="n">
         <v>0.4130674252357906</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.07552871258567576</v>
+        <v>-0.07552871258567577</v>
       </c>
       <c r="D14" t="n">
         <v>0.005704586424849624</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6368544411552605</v>
+        <v>0.6368544411552606</v>
       </c>
       <c r="D15" t="n">
         <v>0.4055835792191793</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.470311819988275</v>
+        <v>0.4703118199882752</v>
       </c>
       <c r="D18" t="n">
         <v>0.2211932080206836</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.06668999884850213</v>
+        <v>0.06668999884850219</v>
       </c>
       <c r="D19" t="n">
         <v>0.004447555946413217</v>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4082828601056111</v>
+        <v>0.408282860105611</v>
       </c>
       <c r="D22" t="n">
         <v>0.166694893856018</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2365353157351028</v>
+        <v>0.2365353157351027</v>
       </c>
       <c r="D23" t="n">
         <v>0.05594895558990477</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3288562114493243</v>
+        <v>0.3288562114493244</v>
       </c>
       <c r="D24" t="n">
         <v>0.1081464078088027</v>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2082004805843875</v>
+        <v>0.2082004805843874</v>
       </c>
       <c r="D25" t="n">
         <v>0.04334744011556989</v>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.431175751970574</v>
+        <v>0.4311757519705738</v>
       </c>
       <c r="D29" t="n">
         <v>0.1859125290873899</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2688589190891725</v>
+        <v>0.2688589190891724</v>
       </c>
       <c r="D31" t="n">
         <v>0.0722851183737982</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.3955328408631571</v>
+        <v>0.3955328408631572</v>
       </c>
       <c r="D33" t="n">
         <v>0.1564462282012797</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.05616993229388925</v>
+        <v>-0.05616993229388921</v>
       </c>
       <c r="D34" t="n">
         <v>0.003155061293900108</v>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1832459024130427</v>
+        <v>0.1832459024130426</v>
       </c>
       <c r="D37" t="n">
         <v>0.03357906075117036</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.667710485693392</v>
+        <v>0.6677104856933921</v>
       </c>
       <c r="D38" t="n">
         <v>0.4458372927049056</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2097994739051304</v>
+        <v>0.2097994739051305</v>
       </c>
       <c r="D39" t="n">
         <v>0.0440158192508695</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.6504139373719297</v>
+        <v>0.6504139373719298</v>
       </c>
       <c r="D40" t="n">
         <v>0.4230382899276566</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.7646136892746447</v>
+        <v>0.7646136892746446</v>
       </c>
       <c r="D41" t="n">
         <v>0.5846340938261826</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5370880563091586</v>
+        <v>0.5370880563091587</v>
       </c>
       <c r="D42" t="n">
         <v>0.2884635802299501</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.6824110741644984</v>
+        <v>0.6824110741644985</v>
       </c>
       <c r="D43" t="n">
         <v>0.4656848741423449</v>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6504906698997271</v>
+        <v>0.6504906698997274</v>
       </c>
       <c r="D45" t="n">
         <v>0.4231381116265958</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8264907377932085</v>
+        <v>0.8264907377932086</v>
       </c>
       <c r="D46" t="n">
         <v>0.6830869396579624</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.3302733365487712</v>
+        <v>0.3302733365487711</v>
       </c>
       <c r="D49" t="n">
         <v>0.1090804768350578</v>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.641199015008946</v>
+        <v>0.6411990150089458</v>
       </c>
       <c r="D50" t="n">
         <v>0.4111361768484426</v>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.1311171996513417</v>
+        <v>0.1311171996513416</v>
       </c>
       <c r="D51" t="n">
         <v>0.01719172004440978</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.6412218000491924</v>
+        <v>0.6412218000491923</v>
       </c>
       <c r="D55" t="n">
         <v>0.4111653968583263</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.2427643699917938</v>
+        <v>0.2427643699917939</v>
       </c>
       <c r="D56" t="n">
         <v>0.05893453933751259</v>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.434075563191389</v>
+        <v>0.4340755631913889</v>
       </c>
       <c r="D58" t="n">
         <v>0.1884215945599215</v>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.3035288444921359</v>
+        <v>0.3035288444921358</v>
       </c>
       <c r="D59" t="n">
         <v>0.09212975943873118</v>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.4942399061458898</v>
+        <v>0.4942399061458896</v>
       </c>
       <c r="D62" t="n">
         <v>0.2442730848270978</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.4375564777123872</v>
+        <v>0.4375564777123873</v>
       </c>
       <c r="D65" t="n">
         <v>0.1914556711880709</v>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.4864121554765818</v>
+        <v>0.486412155476582</v>
       </c>
       <c r="D66" t="n">
         <v>0.2365967849953744</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.05264616166478278</v>
+        <v>-0.0526461616647828</v>
       </c>
       <c r="D70" t="n">
         <v>0.002771618338034445</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.2851223156521814</v>
+        <v>0.2851223156521815</v>
       </c>
       <c r="D72" t="n">
         <v>0.08129473488286218</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.5187633639367174</v>
+        <v>0.5187633639367175</v>
       </c>
       <c r="D74" t="n">
         <v>0.2691154277629395</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.06031713165666205</v>
+        <v>0.06031713165666207</v>
       </c>
       <c r="D75" t="n">
         <v>0.003638156371287104</v>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7243401005944848</v>
+        <v>0.7243401005944847</v>
       </c>
       <c r="D77" t="n">
         <v>0.5246685813292288</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.5707266261304987</v>
+        <v>0.5707266261304988</v>
       </c>
       <c r="D79" t="n">
         <v>0.3257288817743022</v>
@@ -2084,7 +2084,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.5693315461784038</v>
+        <v>0.5693315461784039</v>
       </c>
       <c r="D80" t="n">
         <v>0.3241384094738919</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5071673733153157</v>
+        <v>0.5071673733153158</v>
       </c>
       <c r="D81" t="n">
         <v>0.2572187445555569</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.7653559771093856</v>
+        <v>0.7653559771093855</v>
       </c>
       <c r="D82" t="n">
         <v>0.5857697716970628</v>
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.74100745230231</v>
+        <v>0.7410074523023102</v>
       </c>
       <c r="D84" t="n">
         <v>0.5490920443675604</v>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.3892921647736142</v>
+        <v>0.3892921647736141</v>
       </c>
       <c r="D86" t="n">
         <v>0.1515483895541267</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.6944266553484335</v>
+        <v>0.6944266553484334</v>
       </c>
       <c r="D88" t="n">
         <v>0.482228379658412</v>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.4737733749340701</v>
+        <v>0.47377337493407</v>
       </c>
       <c r="D89" t="n">
         <v>0.224461210796419</v>
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.8308228882276851</v>
+        <v>0.8308228882276854</v>
       </c>
       <c r="D90" t="n">
         <v>0.6902666716029926</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.6629094050949611</v>
+        <v>0.662909405094961</v>
       </c>
       <c r="D93" t="n">
         <v>0.4394488793633552</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.08471722482498996</v>
+        <v>-0.08471722482498995</v>
       </c>
       <c r="D95" t="n">
         <v>0.007177008182047888</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.4744499880227949</v>
+        <v>0.474449988022795</v>
       </c>
       <c r="D99" t="n">
         <v>0.2251027911348303</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.09221495257322024</v>
+        <v>0.09221495257322018</v>
       </c>
       <c r="D100" t="n">
         <v>0.008503597478081253</v>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.3347088080883975</v>
+        <v>0.3347088080883974</v>
       </c>
       <c r="D103" t="n">
         <v>0.1120299862119557</v>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.5671571530624673</v>
+        <v>0.5671571530624674</v>
       </c>
       <c r="D105" t="n">
         <v>0.3216672362699231</v>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.2483390006666691</v>
+        <v>0.248339000666669</v>
       </c>
       <c r="D106" t="n">
         <v>0.06167225925211987</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.05493110624020969</v>
+        <v>0.05493110624020972</v>
       </c>
       <c r="D107" t="n">
         <v>0.003017426432773209</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.409408202111412</v>
+        <v>0.4094082021114122</v>
       </c>
       <c r="D108" t="n">
         <v>0.1676150759560988</v>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.0927800953568006</v>
+        <v>-0.09278009535680057</v>
       </c>
       <c r="D109" t="n">
         <v>0.008608146094417001</v>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.9036464236479416</v>
+        <v>0.9036464236479418</v>
       </c>
       <c r="D110" t="n">
         <v>0.8165768589717148</v>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.5612187838022633</v>
+        <v>0.5612187838022635</v>
       </c>
       <c r="D111" t="n">
         <v>0.3149665232924914</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.8521505712359012</v>
+        <v>0.8521505712359013</v>
       </c>
       <c r="D112" t="n">
         <v>0.7261605960576729</v>
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.8745954603970991</v>
+        <v>0.8745954603970993</v>
       </c>
       <c r="D114" t="n">
         <v>0.7649172193472136</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.8396786139719836</v>
+        <v>0.8396786139719838</v>
       </c>
       <c r="D115" t="n">
         <v>0.7050601747619116</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.859731341201231</v>
+        <v>0.8597313412012313</v>
       </c>
       <c r="D117" t="n">
         <v>0.7391379790436674</v>
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.7890842825745166</v>
+        <v>0.7890842825745168</v>
       </c>
       <c r="D118" t="n">
         <v>0.6226540050061393</v>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.9079355401672647</v>
+        <v>0.9079355401672646</v>
       </c>
       <c r="D119" t="n">
         <v>0.8243469450988226</v>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.5799583136919302</v>
+        <v>0.5799583136919303</v>
       </c>
       <c r="D120" t="n">
         <v>0.3363516456203873</v>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.696840786865585</v>
+        <v>0.6968407868655849</v>
       </c>
       <c r="D122" t="n">
         <v>0.4855870822394474</v>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.8262119438985727</v>
+        <v>0.8262119438985726</v>
       </c>
       <c r="D124" t="n">
         <v>0.6826261762406577</v>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.8794425527222863</v>
+        <v>0.8794425527222864</v>
       </c>
       <c r="D126" t="n">
         <v>0.7734192035386912</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.7665475501580528</v>
+        <v>0.7665475501580529</v>
       </c>
       <c r="D127" t="n">
         <v>0.5875951466533128</v>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.03134391467740508</v>
+        <v>0.03134391467740509</v>
       </c>
       <c r="D129" t="n">
         <v>0.000982440987304452</v>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.4470902178356174</v>
+        <v>0.4470902178356175</v>
       </c>
       <c r="D132" t="n">
         <v>0.1998896628842997</v>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.5715998920925695</v>
+        <v>0.5715998920925696</v>
       </c>
       <c r="D135" t="n">
         <v>0.326726436640237</v>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.5481594436112559</v>
+        <v>0.5481594436112558</v>
       </c>
       <c r="D136" t="n">
         <v>0.3004787756202016</v>
@@ -3242,19 +3242,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.6252378377212855</v>
+        <v>-0.6252378377212857</v>
       </c>
       <c r="D2" t="n">
         <v>0.3909223537183885</v>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.7362132135686817</v>
+        <v>-0.7362132135686816</v>
       </c>
       <c r="D3" t="n">
         <v>0.5420098958331254</v>
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.09373604646107868</v>
+        <v>0.09373604646107869</v>
       </c>
       <c r="D5" t="n">
         <v>0.008786446406153503</v>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.5819801400922187</v>
+        <v>-0.5819801400922189</v>
       </c>
       <c r="D6" t="n">
         <v>0.3387008834617587</v>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2789720850768647</v>
+        <v>-0.2789720850768648</v>
       </c>
       <c r="D7" t="n">
         <v>0.07782542425213347</v>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.4340574778683139</v>
+        <v>-0.4340574778683137</v>
       </c>
       <c r="D10" t="n">
         <v>0.1884058940934017</v>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6400432071653503</v>
+        <v>0.6400432071653505</v>
       </c>
       <c r="D11" t="n">
         <v>0.4096553070385077</v>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2882580871663132</v>
+        <v>0.2882580871663131</v>
       </c>
       <c r="D13" t="n">
         <v>0.08309272481678184</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.06592135444301514</v>
+        <v>-0.06592135444301518</v>
       </c>
       <c r="D14" t="n">
         <v>0.004345624971601632</v>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.4452446897138481</v>
+        <v>0.4452446897138479</v>
       </c>
       <c r="D19" t="n">
         <v>0.1982428337183808</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7955694908344318</v>
+        <v>0.7955694908344321</v>
       </c>
       <c r="D20" t="n">
         <v>0.632930814746557</v>
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3593175864784183</v>
+        <v>0.3593175864784182</v>
       </c>
       <c r="D23" t="n">
         <v>0.1291091279526757</v>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5633396874199952</v>
+        <v>0.5633396874199954</v>
       </c>
       <c r="D24" t="n">
         <v>0.3173516034224579</v>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5669863466615291</v>
+        <v>0.5669863466615293</v>
       </c>
       <c r="D25" t="n">
         <v>0.3214735173005877</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5628425008599228</v>
+        <v>0.5628425008599227</v>
       </c>
       <c r="D27" t="n">
         <v>0.3167916807742522</v>
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6286546743056752</v>
+        <v>0.6286546743056751</v>
       </c>
       <c r="D28" t="n">
         <v>0.3952066995263744</v>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.2240653714122477</v>
+        <v>-0.2240653714122478</v>
       </c>
       <c r="D29" t="n">
         <v>0.05020529066610852</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.1660176427100365</v>
+        <v>-0.1660176427100366</v>
       </c>
       <c r="D33" t="n">
         <v>0.02756185769099733</v>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.2864456488580048</v>
+        <v>-0.2864456488580049</v>
       </c>
       <c r="D34" t="n">
         <v>0.08205110974968341</v>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3229655110740046</v>
+        <v>0.3229655110740047</v>
       </c>
       <c r="D38" t="n">
         <v>0.104306721343293</v>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4769843296047697</v>
+        <v>0.4769843296047698</v>
       </c>
       <c r="D40" t="n">
         <v>0.2275140506885116</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.303436969880686</v>
+        <v>0.3034369698806861</v>
       </c>
       <c r="D42" t="n">
         <v>0.09207399469037239</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.6271575683159478</v>
+        <v>0.627157568315948</v>
       </c>
       <c r="D43" t="n">
         <v>0.3933266154959729</v>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.04703972560775478</v>
+        <v>-0.0470397256077548</v>
       </c>
       <c r="D44" t="n">
         <v>0.00221273578525286</v>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.4293597445309267</v>
+        <v>0.4293597445309266</v>
       </c>
       <c r="D45" t="n">
         <v>0.1843497902236625</v>
@@ -4230,7 +4230,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.1073255179770452</v>
+        <v>0.1073255179770453</v>
       </c>
       <c r="D47" t="n">
         <v>0.01151876680904105</v>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.09711163595272858</v>
+        <v>0.09711163595272862</v>
       </c>
       <c r="D51" t="n">
         <v>0.009430669837415299</v>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.06499987967454356</v>
+        <v>0.06499987967454353</v>
       </c>
       <c r="D53" t="n">
         <v>0.004224984357705139</v>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.2546829060964492</v>
+        <v>0.2546829060964493</v>
       </c>
       <c r="D54" t="n">
         <v>0.06486338265773274</v>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.0089103771106471</v>
+        <v>-0.008910377110647044</v>
       </c>
       <c r="D55" t="n">
         <v>7.939482025394358e-05</v>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8667618252355701</v>
+        <v>0.8667618252355703</v>
       </c>
       <c r="D56" t="n">
         <v>0.7512760616856969</v>
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.6191340360755595</v>
+        <v>0.6191340360755596</v>
       </c>
       <c r="D58" t="n">
         <v>0.3833269546272123</v>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.5897873944140321</v>
+        <v>0.5897873944140319</v>
       </c>
       <c r="D59" t="n">
         <v>0.3478491706096931</v>
@@ -4494,7 +4494,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.6717962557673367</v>
+        <v>0.6717962557673369</v>
       </c>
       <c r="D60" t="n">
         <v>0.4513102092630132</v>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.763542026979481</v>
+        <v>0.7635420269794813</v>
       </c>
       <c r="D61" t="n">
         <v>0.5829964269639347</v>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.277756574860233</v>
+        <v>-0.2777565748602329</v>
       </c>
       <c r="D75" t="n">
         <v>0.07714871487808821</v>
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7030814090032353</v>
+        <v>0.7030814090032351</v>
       </c>
       <c r="D77" t="n">
         <v>0.4943234676859748</v>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.5490306014091638</v>
+        <v>0.5490306014091636</v>
       </c>
       <c r="D79" t="n">
         <v>0.3014346012837082</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.006573495969941653</v>
+        <v>0.006573495969941667</v>
       </c>
       <c r="D80" t="n">
         <v>4.321084926683913e-05</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.0782806502959535</v>
+        <v>0.07828065029595348</v>
       </c>
       <c r="D82" t="n">
         <v>0.006127860210757365</v>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.8943288268475331</v>
+        <v>0.8943288268475332</v>
       </c>
       <c r="D83" t="n">
         <v>0.7998240505304851</v>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.7431361373683327</v>
+        <v>0.7431361373683326</v>
       </c>
       <c r="D85" t="n">
         <v>0.5522513186627257</v>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.4394070727497909</v>
+        <v>0.4394070727497907</v>
       </c>
       <c r="D86" t="n">
         <v>0.19307857558254</v>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.8739867894678617</v>
+        <v>0.8739867894678618</v>
       </c>
       <c r="D87" t="n">
         <v>0.7638529081643406</v>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.454296522170039</v>
+        <v>-0.4542965221700389</v>
       </c>
       <c r="D89" t="n">
         <v>0.2063853300557927</v>
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.6774936170663672</v>
+        <v>0.677493617066367</v>
       </c>
       <c r="D91" t="n">
         <v>0.4589976011656693</v>
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.5838898382363504</v>
+        <v>0.5838898382363505</v>
       </c>
       <c r="D92" t="n">
         <v>0.3409273431956714</v>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.6413952573098411</v>
+        <v>0.6413952573098413</v>
       </c>
       <c r="D93" t="n">
         <v>0.4113878760995572</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.5079208724412488</v>
+        <v>0.5079208724412489</v>
       </c>
       <c r="D96" t="n">
         <v>0.2579836126614795</v>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.4180029877429967</v>
+        <v>-0.4180029877429968</v>
       </c>
       <c r="D98" t="n">
         <v>0.1747264977620719</v>
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.4238569475989545</v>
+        <v>0.4238569475989544</v>
       </c>
       <c r="D100" t="n">
         <v>0.1796547120279028</v>
@@ -5334,7 +5334,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.5612237070722405</v>
+        <v>0.5612237070722406</v>
       </c>
       <c r="D101" t="n">
         <v>0.314972049379908</v>
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.7617810037439731</v>
+        <v>0.761781003743973</v>
       </c>
       <c r="D102" t="n">
         <v>0.5803102976651749</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.1561668225202976</v>
+        <v>-0.1561668225202975</v>
       </c>
       <c r="D104" t="n">
         <v>0.02438807645608612</v>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.5389234649475411</v>
+        <v>0.5389234649475412</v>
       </c>
       <c r="D105" t="n">
         <v>0.2904385010710636</v>
@@ -5454,7 +5454,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.3781189463544469</v>
+        <v>-0.3781189463544468</v>
       </c>
       <c r="D107" t="n">
         <v>0.142973937592197</v>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.3586623272542618</v>
+        <v>0.3586623272542619</v>
       </c>
       <c r="D108" t="n">
         <v>0.1286386649914432</v>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.4136259696181438</v>
+        <v>0.4136259696181437</v>
       </c>
       <c r="D109" t="n">
         <v>0.1710864427425496</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.8145945972286377</v>
+        <v>0.8145945972286376</v>
       </c>
       <c r="D112" t="n">
         <v>0.6635643578340863</v>
@@ -5578,7 +5578,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.8372532546297179</v>
+        <v>0.8372532546297178</v>
       </c>
       <c r="D113" t="n">
         <v>0.7009930123880554</v>
@@ -5598,7 +5598,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.7237676464231647</v>
+        <v>0.7237676464231648</v>
       </c>
       <c r="D114" t="n">
         <v>0.523839606008927</v>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.8787745189383656</v>
+        <v>0.8787745189383653</v>
       </c>
       <c r="D115" t="n">
         <v>0.7722446551353556</v>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-0.2184978098704855</v>
+        <v>-0.2184978098704854</v>
       </c>
       <c r="D116" t="n">
         <v>0.04774129291819882</v>
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.7595990193799285</v>
+        <v>0.7595990193799284</v>
       </c>
       <c r="D117" t="n">
         <v>0.5769906702429488</v>
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.5370113674859827</v>
+        <v>0.5370113674859825</v>
       </c>
       <c r="D118" t="n">
         <v>0.2883812088091652</v>
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.8296594034167586</v>
+        <v>0.8296594034167585</v>
       </c>
       <c r="D121" t="n">
         <v>0.6883347256778513</v>
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.8161352794810048</v>
+        <v>0.8161352794810047</v>
       </c>
       <c r="D122" t="n">
         <v>0.6660767944135381</v>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.225470236952922</v>
+        <v>-0.2254702369529219</v>
       </c>
       <c r="D125" t="n">
         <v>0.05083682775160678</v>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.7629432736381322</v>
+        <v>0.7629432736381321</v>
       </c>
       <c r="D126" t="n">
         <v>0.58208243878967</v>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.5762254632760198</v>
+        <v>0.5762254632760195</v>
       </c>
       <c r="D127" t="n">
         <v>0.3320357845276636</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.311830514722325</v>
+        <v>0.3118305147223251</v>
       </c>
       <c r="D128" t="n">
         <v>0.0972382699119901</v>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-0.1851013899876675</v>
+        <v>-0.1851013899876674</v>
       </c>
       <c r="D129" t="n">
         <v>0.03426252457536658</v>
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.3794558789656151</v>
+        <v>0.379455878965615</v>
       </c>
       <c r="D130" t="n">
         <v>0.1439867640815675</v>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.646261246837642</v>
+        <v>0.6462612468376419</v>
       </c>
       <c r="D131" t="n">
         <v>0.4176535991641436</v>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.2526529642109376</v>
+        <v>0.2526529642109377</v>
       </c>
       <c r="D132" t="n">
         <v>0.0638335203245733</v>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.1339589091866972</v>
+        <v>-0.1339589091866973</v>
       </c>
       <c r="D134" t="n">
         <v>0.0179449893504898</v>
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.07924488082444667</v>
+        <v>0.07924488082444664</v>
       </c>
       <c r="D136" t="n">
         <v>0.006279751136880759</v>
@@ -6060,19 +6060,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>
@@ -6128,7 +6128,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.3965604970183707</v>
+        <v>-0.3965604970183708</v>
       </c>
       <c r="D2" t="n">
         <v>0.1572602277954572</v>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1989923792969925</v>
+        <v>-0.1989923792969924</v>
       </c>
       <c r="D5" t="n">
         <v>0.03959796701827809</v>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.4702618227808743</v>
+        <v>-0.4702618227808741</v>
       </c>
       <c r="D6" t="n">
         <v>0.2211461819651903</v>
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3692873200649865</v>
+        <v>0.3692873200649866</v>
       </c>
       <c r="D8" t="n">
         <v>0.1363731247607798</v>
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4752754288563174</v>
+        <v>-0.4752754288563175</v>
       </c>
       <c r="D9" t="n">
         <v>0.2258867332745564</v>
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.183385315456027</v>
+        <v>-0.1833853154560269</v>
       </c>
       <c r="D10" t="n">
         <v>0.03363017392490651</v>
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.281032521763793</v>
+        <v>0.2810325217637929</v>
       </c>
       <c r="D13" t="n">
         <v>0.07897927828891677</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2010818089201147</v>
+        <v>0.2010818089201146</v>
       </c>
       <c r="D19" t="n">
         <v>0.04043389387858549</v>
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2373289720835427</v>
+        <v>0.2373289720835428</v>
       </c>
       <c r="D20" t="n">
         <v>0.05632504099023103</v>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.07604223377821805</v>
+        <v>0.07604223377821806</v>
       </c>
       <c r="D21" t="n">
         <v>0.005782421317981168</v>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.0178429015970611</v>
+        <v>-0.01784290159706107</v>
       </c>
       <c r="D22" t="n">
         <v>0.0003183691374024045</v>
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.07760301592925521</v>
+        <v>-0.0776030159292552</v>
       </c>
       <c r="D23" t="n">
         <v>0.00602222808131624</v>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.07441866556543732</v>
+        <v>0.07441866556543737</v>
       </c>
       <c r="D24" t="n">
         <v>0.005538137784540418</v>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02504461765756635</v>
+        <v>0.0250446176575664</v>
       </c>
       <c r="D25" t="n">
         <v>0.0006272328736136835</v>
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.08065467658716954</v>
+        <v>-0.08065467658716959</v>
       </c>
       <c r="D27" t="n">
         <v>0.006505176855380912</v>
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3864625784301383</v>
+        <v>0.3864625784301384</v>
       </c>
       <c r="D29" t="n">
         <v>0.1493533245268708</v>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5672955172915317</v>
+        <v>0.5672955172915316</v>
       </c>
       <c r="D33" t="n">
         <v>0.3218242039390666</v>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6232075671139395</v>
+        <v>0.6232075671139397</v>
       </c>
       <c r="D34" t="n">
         <v>0.3883876717080755</v>
@@ -6800,7 +6800,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5421631273496317</v>
+        <v>0.5421631273496318</v>
       </c>
       <c r="D35" t="n">
         <v>0.2939408566575329</v>
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.6958383304373184</v>
+        <v>0.6958383304373186</v>
       </c>
       <c r="D36" t="n">
         <v>0.4841909821057946</v>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.8912056309502261</v>
+        <v>0.8912056309502262</v>
       </c>
       <c r="D39" t="n">
         <v>0.7942474766373906</v>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9109885020934783</v>
+        <v>0.9109885020934784</v>
       </c>
       <c r="D40" t="n">
         <v>0.8299000509465192</v>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.800118549735177</v>
+        <v>0.8001185497351769</v>
       </c>
       <c r="D41" t="n">
         <v>0.640189693630323</v>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.8664169696196327</v>
+        <v>0.8664169696196325</v>
       </c>
       <c r="D42" t="n">
         <v>0.7506783652448671</v>
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.7786255710574739</v>
+        <v>0.7786255710574737</v>
       </c>
       <c r="D43" t="n">
         <v>0.6062577799045771</v>
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.6793077965257875</v>
+        <v>0.6793077965257874</v>
       </c>
       <c r="D44" t="n">
         <v>0.4614590824207209</v>
@@ -7024,7 +7024,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8727726008618301</v>
+        <v>0.8727726008618302</v>
       </c>
       <c r="D46" t="n">
         <v>0.7617320128151235</v>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.6611640927219355</v>
+        <v>0.6611640927219357</v>
       </c>
       <c r="D47" t="n">
         <v>0.4371379575048203</v>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.7965827419022591</v>
+        <v>0.7965827419022593</v>
       </c>
       <c r="D49" t="n">
         <v>0.6345440646965211</v>
@@ -7108,7 +7108,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.7029451939777049</v>
+        <v>0.7029451939777051</v>
       </c>
       <c r="D50" t="n">
         <v>0.4941319457363531</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.5993624209530812</v>
+        <v>0.5993624209530813</v>
       </c>
       <c r="D52" t="n">
         <v>0.3592353116507386</v>
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.745632650071107</v>
+        <v>0.7456326500711071</v>
       </c>
       <c r="D53" t="n">
         <v>0.5559680488520623</v>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.7940852930816586</v>
+        <v>0.7940852930816588</v>
       </c>
       <c r="D55" t="n">
         <v>0.6305714526885835</v>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.1171431527265023</v>
+        <v>0.1171431527265024</v>
       </c>
       <c r="D56" t="n">
         <v>0.01372251823070466</v>
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.2419615576462633</v>
+        <v>-0.2419615576462632</v>
       </c>
       <c r="D58" t="n">
         <v>0.05854539537860597</v>
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.1169681505306921</v>
+        <v>-0.116968150530692</v>
       </c>
       <c r="D61" t="n">
         <v>0.01368154823857063</v>
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.2919875918509435</v>
+        <v>-0.2919875918509434</v>
       </c>
       <c r="D64" t="n">
         <v>0.08525675379491315</v>
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.2047063890044705</v>
+        <v>0.2047063890044706</v>
       </c>
       <c r="D65" t="n">
         <v>0.04190470569924959</v>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.357997966680524</v>
+        <v>0.3579979666805241</v>
       </c>
       <c r="D66" t="n">
         <v>0.1281625441473896</v>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.490947593642531</v>
+        <v>0.4909475936425312</v>
       </c>
       <c r="D68" t="n">
         <v>0.2410295397033918</v>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5149073337328524</v>
+        <v>0.5149073337328525</v>
       </c>
       <c r="D69" t="n">
         <v>0.265129562331875</v>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.4837537762716646</v>
+        <v>0.4837537762716647</v>
       </c>
       <c r="D70" t="n">
         <v>0.2340177160570958</v>
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.3744681274168974</v>
+        <v>0.3744681274168975</v>
       </c>
       <c r="D71" t="n">
         <v>0.1402263784511178</v>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.6159884213779846</v>
+        <v>0.6159884213779847</v>
       </c>
       <c r="D72" t="n">
         <v>0.3794417352717414</v>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.4301616287202644</v>
+        <v>0.4301616287202645</v>
       </c>
       <c r="D73" t="n">
         <v>0.1850390268232707</v>
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.7566903247501007</v>
+        <v>0.7566903247501009</v>
       </c>
       <c r="D74" t="n">
         <v>0.5725802475704128</v>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7676386125512329</v>
+        <v>0.767638612551233</v>
       </c>
       <c r="D77" t="n">
         <v>0.5892690394795819</v>
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.7194581679876024</v>
+        <v>0.7194581679876026</v>
       </c>
       <c r="D81" t="n">
         <v>0.5176200554840772</v>
@@ -7784,7 +7784,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.8802529890007281</v>
+        <v>0.880252989000728</v>
       </c>
       <c r="D83" t="n">
         <v>0.7748453246447162</v>
@@ -7824,7 +7824,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8805876904625609</v>
+        <v>0.8805876904625606</v>
       </c>
       <c r="D85" t="n">
         <v>0.775434680594187</v>
@@ -7844,7 +7844,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.7726286546688674</v>
+        <v>0.7726286546688672</v>
       </c>
       <c r="D86" t="n">
         <v>0.596955038015424</v>
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9662889656858782</v>
+        <v>0.966288965685878</v>
       </c>
       <c r="D87" t="n">
         <v>0.9337143652062845</v>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.9239383471310652</v>
+        <v>0.923938347131065</v>
       </c>
       <c r="D88" t="n">
         <v>0.8536620692992849</v>
@@ -7904,7 +7904,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.3500856946253749</v>
+        <v>0.3500856946253748</v>
       </c>
       <c r="D89" t="n">
         <v>0.1225599935813313</v>
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.7802994289863513</v>
+        <v>0.7802994289863512</v>
       </c>
       <c r="D91" t="n">
         <v>0.6088671988764257</v>
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.3866402513928517</v>
+        <v>0.3866402513928519</v>
       </c>
       <c r="D92" t="n">
         <v>0.1494906839971276</v>
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.2435241050645213</v>
+        <v>0.2435241050645214</v>
       </c>
       <c r="D93" t="n">
         <v>0.05930398974747599</v>
@@ -8028,7 +8028,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.1695174518638358</v>
+        <v>0.1695174518638359</v>
       </c>
       <c r="D95" t="n">
         <v>0.0287361664864079</v>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.4976648627892605</v>
+        <v>0.4976648627892607</v>
       </c>
       <c r="D97" t="n">
         <v>0.2476703156550535</v>
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.3774591012506136</v>
+        <v>-0.3774591012506137</v>
       </c>
       <c r="D98" t="n">
         <v>0.142475373116921</v>
@@ -8108,7 +8108,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.4553831091693318</v>
+        <v>0.4553831091693319</v>
       </c>
       <c r="D99" t="n">
         <v>0.2073737761167276</v>
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.3509398803138826</v>
+        <v>0.3509398803138827</v>
       </c>
       <c r="D101" t="n">
         <v>0.1231587995947222</v>
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.4396579251567161</v>
+        <v>0.439657925156716</v>
       </c>
       <c r="D105" t="n">
         <v>0.1932990911531086</v>
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.484278355938331</v>
+        <v>0.4842783559383309</v>
       </c>
       <c r="D106" t="n">
         <v>0.2345255260303327</v>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.4203124917466445</v>
+        <v>-0.4203124917466444</v>
       </c>
       <c r="D107" t="n">
         <v>0.1766625907182731</v>
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.1292460100139338</v>
+        <v>0.1292460100139337</v>
       </c>
       <c r="D109" t="n">
         <v>0.01670453110452188</v>
@@ -8336,7 +8336,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.8756964442925477</v>
+        <v>0.8756964442925481</v>
       </c>
       <c r="D110" t="n">
         <v>0.7668442625466112</v>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.90589130623119</v>
+        <v>0.9058913062311897</v>
       </c>
       <c r="D111" t="n">
         <v>0.8206390587052514</v>
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.8395129841826705</v>
+        <v>0.8395129841826704</v>
       </c>
       <c r="D113" t="n">
         <v>0.7047820506112926</v>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.8838556490215086</v>
+        <v>0.8838556490215087</v>
       </c>
       <c r="D115" t="n">
         <v>0.7812008083072324</v>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.6163764965748966</v>
+        <v>0.6163764965748967</v>
       </c>
       <c r="D116" t="n">
         <v>0.3799199855299438</v>
@@ -8476,7 +8476,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.8656185222453612</v>
+        <v>0.8656185222453614</v>
       </c>
       <c r="D117" t="n">
         <v>0.7492954260542428</v>
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.8999560793834999</v>
+        <v>0.8999560793834996</v>
       </c>
       <c r="D118" t="n">
         <v>0.8099209448193203</v>
@@ -8520,7 +8520,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.8734295131073841</v>
+        <v>0.8734295131073846</v>
       </c>
       <c r="D119" t="n">
         <v>0.7628791143670023</v>
@@ -8600,7 +8600,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.9443752257014105</v>
+        <v>0.9443752257014104</v>
       </c>
       <c r="D123" t="n">
         <v>0.8918445669185896</v>
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.888539501678961</v>
+        <v>0.8885395016789609</v>
       </c>
       <c r="D124" t="n">
         <v>0.7895024460438962</v>
@@ -8660,7 +8660,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.8684565374530616</v>
+        <v>0.8684565374530619</v>
       </c>
       <c r="D126" t="n">
         <v>0.7542167574449612</v>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.8927875621838157</v>
+        <v>0.8927875621838156</v>
       </c>
       <c r="D127" t="n">
         <v>0.7970696311901204</v>
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.8529732665877209</v>
+        <v>0.8529732665877208</v>
       </c>
       <c r="D129" t="n">
         <v>0.727563393513327</v>
@@ -8744,7 +8744,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.8736491872763992</v>
+        <v>0.8736491872763993</v>
       </c>
       <c r="D130" t="n">
         <v>0.763262902428713</v>
@@ -8764,7 +8764,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.7788125011479616</v>
+        <v>0.7788125011479615</v>
       </c>
       <c r="D131" t="n">
         <v>0.6065489119443438</v>
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.7926895747211748</v>
+        <v>0.7926895747211751</v>
       </c>
       <c r="D133" t="n">
         <v>0.6283567618716372</v>
@@ -8878,19 +8878,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.6823736244921241</v>
+        <v>-0.6823736244921239</v>
       </c>
       <c r="D6" t="n">
         <v>0.4656337634025183</v>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.5229207778943972</v>
+        <v>-0.5229207778943971</v>
       </c>
       <c r="D7" t="n">
         <v>0.2734461399536813</v>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2758682085022455</v>
+        <v>-0.2758682085022456</v>
       </c>
       <c r="D10" t="n">
         <v>0.07610326846223844</v>
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4851524676543256</v>
+        <v>0.4851524676543255</v>
       </c>
       <c r="D12" t="n">
         <v>0.2353729168710812</v>
@@ -9170,7 +9170,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5069555465307334</v>
+        <v>0.5069555465307333</v>
       </c>
       <c r="D13" t="n">
         <v>0.2570039261582743</v>
@@ -9210,7 +9210,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7141332535176612</v>
+        <v>0.7141332535176613</v>
       </c>
       <c r="D15" t="n">
         <v>0.50998630377972</v>
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5467126429508654</v>
+        <v>0.5467126429508653</v>
       </c>
       <c r="D16" t="n">
         <v>0.2988947139623204</v>
@@ -9290,7 +9290,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3075940758043811</v>
+        <v>0.3075940758043812</v>
       </c>
       <c r="D19" t="n">
         <v>0.09461411546995134</v>
@@ -9314,7 +9314,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.1238898191025313</v>
+        <v>-0.1238898191025314</v>
       </c>
       <c r="D20" t="n">
         <v>0.01534868727725792</v>
@@ -9354,7 +9354,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.06260043966360931</v>
+        <v>-0.06260043966360923</v>
       </c>
       <c r="D22" t="n">
         <v>0.003918815046077183</v>
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.3528624645481854</v>
+        <v>-0.3528624645481853</v>
       </c>
       <c r="D23" t="n">
         <v>0.1245119188870193</v>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04004808909118293</v>
+        <v>0.04004808909118285</v>
       </c>
       <c r="D24" t="n">
         <v>0.001603849439855331</v>
@@ -9434,7 +9434,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02071208038169869</v>
+        <v>0.02071208038169868</v>
       </c>
       <c r="D26" t="n">
         <v>0.0004289902737379482</v>
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.009543778369242847</v>
+        <v>-0.009543778369242917</v>
       </c>
       <c r="D28" t="n">
         <v>9.108370556122816e-05</v>
@@ -9498,7 +9498,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.02535824357700522</v>
+        <v>0.02535824357700519</v>
       </c>
       <c r="D29" t="n">
         <v>0.0006430405173107258</v>
@@ -9518,7 +9518,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.06177596018134093</v>
+        <v>0.06177596018134091</v>
       </c>
       <c r="D30" t="n">
         <v>0.003816269256326614</v>
@@ -9558,7 +9558,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.3557097188816291</v>
+        <v>-0.3557097188816292</v>
       </c>
       <c r="D32" t="n">
         <v>0.1265294041068477</v>
@@ -9638,7 +9638,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.09314634509210123</v>
+        <v>-0.09314634509210121</v>
       </c>
       <c r="D36" t="n">
         <v>0.00867624160401681</v>
@@ -9722,7 +9722,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3642676086953953</v>
+        <v>0.3642676086953954</v>
       </c>
       <c r="D40" t="n">
         <v>0.1326908907446616</v>
@@ -9742,7 +9742,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.6584393254264135</v>
+        <v>0.6584393254264137</v>
       </c>
       <c r="D41" t="n">
         <v>0.4335423452679905</v>
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.09599045779403492</v>
+        <v>0.09599045779403494</v>
       </c>
       <c r="D42" t="n">
         <v>0.009214167987508397</v>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.426421225367916</v>
+        <v>0.4264212253679162</v>
       </c>
       <c r="D45" t="n">
         <v>0.1818350614442749</v>
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5785845998904204</v>
+        <v>0.5785845998904207</v>
       </c>
       <c r="D46" t="n">
         <v>0.3347601392303583</v>
@@ -9866,7 +9866,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.03198427151781073</v>
+        <v>-0.03198427151781071</v>
       </c>
       <c r="D47" t="n">
         <v>0.001022993624525038</v>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.08738943417485143</v>
+        <v>-0.08738943417485144</v>
       </c>
       <c r="D48" t="n">
         <v>0.007636913205400679</v>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.07948879924656557</v>
+        <v>0.07948879924656554</v>
       </c>
       <c r="D49" t="n">
         <v>0.006318469205660805</v>
@@ -9926,7 +9926,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.4226149243831682</v>
+        <v>0.4226149243831681</v>
       </c>
       <c r="D50" t="n">
         <v>0.1786033743113909</v>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.2057476373010088</v>
+        <v>-0.2057476373010089</v>
       </c>
       <c r="D51" t="n">
         <v>0.04233209025494748</v>
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.04020442547889647</v>
+        <v>0.04020442547889649</v>
       </c>
       <c r="D52" t="n">
         <v>0.001616395828088141</v>
@@ -10006,7 +10006,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.1495921074809726</v>
+        <v>0.1495921074809727</v>
       </c>
       <c r="D54" t="n">
         <v>0.02237779862059886</v>
@@ -10026,7 +10026,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.3091815179995111</v>
+        <v>0.3091815179995112</v>
       </c>
       <c r="D55" t="n">
         <v>0.095593211072482</v>
@@ -10070,7 +10070,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.2737264509909865</v>
+        <v>0.2737264509909866</v>
       </c>
       <c r="D57" t="n">
         <v>0.07492616997212095</v>
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.07911367739778477</v>
+        <v>-0.07911367739778474</v>
       </c>
       <c r="D58" t="n">
         <v>0.006258973951400754</v>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.001726826802165002</v>
+        <v>-0.00172682680216496</v>
       </c>
       <c r="D60" t="n">
         <v>2.981930804675278e-06</v>
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.3341579810321274</v>
+        <v>-0.3341579810321272</v>
       </c>
       <c r="D61" t="n">
         <v>0.1116615562874676</v>
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.07785709947304037</v>
+        <v>-0.07785709947304033</v>
       </c>
       <c r="D62" t="n">
         <v>0.006061727938354898</v>
@@ -10210,7 +10210,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.06663194628267766</v>
+        <v>-0.06663194628267763</v>
       </c>
       <c r="D64" t="n">
         <v>0.004439816265417635</v>
@@ -10254,7 +10254,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.05327368001090554</v>
+        <v>0.05327368001090557</v>
       </c>
       <c r="D66" t="n">
         <v>0.002838084981904357</v>
@@ -10274,7 +10274,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-0.3027165095774988</v>
+        <v>-0.3027165095774986</v>
       </c>
       <c r="D67" t="n">
         <v>0.09163728517078389</v>
@@ -10294,7 +10294,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.5323142123115803</v>
+        <v>-0.53231421231158</v>
       </c>
       <c r="D68" t="n">
         <v>0.2833584206288983</v>
@@ -10334,7 +10334,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.4203174576466432</v>
+        <v>-0.4203174576466431</v>
       </c>
       <c r="D70" t="n">
         <v>0.1766667652025377</v>
@@ -10354,7 +10354,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.3895733543126306</v>
+        <v>-0.3895733543126305</v>
       </c>
       <c r="D71" t="n">
         <v>0.1517673983903944</v>
@@ -10374,7 +10374,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.2666217039507633</v>
+        <v>-0.2666217039507632</v>
       </c>
       <c r="D72" t="n">
         <v>0.07108713301760844</v>
@@ -10394,7 +10394,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.3561625865581404</v>
+        <v>-0.3561625865581405</v>
       </c>
       <c r="D73" t="n">
         <v>0.1268517880637849</v>
@@ -10438,7 +10438,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.0203757512624575</v>
+        <v>0.02037575126245755</v>
       </c>
       <c r="D75" t="n">
         <v>0.0004151712395095379</v>
@@ -10498,7 +10498,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.05098529005357828</v>
+        <v>-0.05098529005357827</v>
       </c>
       <c r="D78" t="n">
         <v>0.002599499801847511</v>
@@ -10518,7 +10518,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1986483406534343</v>
+        <v>0.1986483406534342</v>
       </c>
       <c r="D79" t="n">
         <v>0.03946116324436285</v>
@@ -10538,7 +10538,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.4746418669490129</v>
+        <v>0.474641866949013</v>
       </c>
       <c r="D80" t="n">
         <v>0.2252849018608446</v>
@@ -10578,7 +10578,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.4556417452228928</v>
+        <v>0.4556417452228929</v>
       </c>
       <c r="D82" t="n">
         <v>0.2076093999897637</v>
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.8912474646064036</v>
+        <v>0.8912474646064037</v>
       </c>
       <c r="D83" t="n">
         <v>0.794322043167343</v>
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.5747883977338021</v>
+        <v>0.5747883977338022</v>
       </c>
       <c r="D84" t="n">
         <v>0.3303817021693912</v>
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8050009949179657</v>
+        <v>0.8050009949179655</v>
       </c>
       <c r="D85" t="n">
         <v>0.6480266018189147</v>
@@ -10662,7 +10662,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.6597971695009124</v>
+        <v>0.6597971695009126</v>
       </c>
       <c r="D86" t="n">
         <v>0.435332304881416</v>
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.8679417861596093</v>
+        <v>0.8679417861596095</v>
       </c>
       <c r="D87" t="n">
         <v>0.7533229441619335</v>
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.6131915656451119</v>
+        <v>0.613191565645112</v>
       </c>
       <c r="D89" t="n">
         <v>0.3760038961783039</v>
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.7837474533595962</v>
+        <v>0.7837474533595964</v>
       </c>
       <c r="D90" t="n">
         <v>0.6142600706476522</v>
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.751892432771073</v>
+        <v>0.7518924327710732</v>
       </c>
       <c r="D91" t="n">
         <v>0.5653422304584025</v>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.6887575682696869</v>
+        <v>0.6887575682696867</v>
       </c>
       <c r="D92" t="n">
         <v>0.4743869878487724</v>
@@ -10826,7 +10826,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.549410227014454</v>
+        <v>0.5494102270144539</v>
       </c>
       <c r="D94" t="n">
         <v>0.3018515975480738</v>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.2180435076734653</v>
+        <v>0.2180435076734652</v>
       </c>
       <c r="D95" t="n">
         <v>0.04754297123854849</v>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.7387756626151235</v>
+        <v>0.7387756626151236</v>
       </c>
       <c r="D96" t="n">
         <v>0.5457894796724148</v>
@@ -10886,7 +10886,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.5818714055514167</v>
+        <v>0.5818714055514165</v>
       </c>
       <c r="D97" t="n">
         <v>0.3385743325983813</v>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.3649513338289085</v>
+        <v>0.3649513338289086</v>
       </c>
       <c r="D100" t="n">
         <v>0.1331894760634995</v>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.5796023157681807</v>
+        <v>0.5796023157681806</v>
       </c>
       <c r="D101" t="n">
         <v>0.3359388444438375</v>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.3945437945245491</v>
+        <v>0.3945437945245492</v>
       </c>
       <c r="D102" t="n">
         <v>0.1556648057978296</v>
@@ -11070,7 +11070,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.4961647147521644</v>
+        <v>0.4961647147521643</v>
       </c>
       <c r="D106" t="n">
         <v>0.2461794241650966</v>
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.4037741018369703</v>
+        <v>0.4037741018369704</v>
       </c>
       <c r="D108" t="n">
         <v>0.1630335253142521</v>
@@ -11130,7 +11130,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.2502305788782089</v>
+        <v>0.250230578878209</v>
       </c>
       <c r="D109" t="n">
         <v>0.06261534260572352</v>
@@ -11254,7 +11254,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.7030644550136904</v>
+        <v>0.7030644550136902</v>
       </c>
       <c r="D115" t="n">
         <v>0.4942996279036972</v>
@@ -11274,7 +11274,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.7859408602576657</v>
+        <v>0.7859408602576656</v>
       </c>
       <c r="D116" t="n">
         <v>0.6177030358225597</v>
@@ -11294,7 +11294,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.7098304340506254</v>
+        <v>0.7098304340506255</v>
       </c>
       <c r="D117" t="n">
         <v>0.503859245104499</v>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.8367276435671849</v>
+        <v>0.836727643567185</v>
       </c>
       <c r="D118" t="n">
         <v>0.7001131495094943</v>
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.6767534416673038</v>
+        <v>0.6767534416673039</v>
       </c>
       <c r="D119" t="n">
         <v>0.4579952208085409</v>
@@ -11378,7 +11378,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.6719146300969067</v>
+        <v>0.6719146300969068</v>
       </c>
       <c r="D121" t="n">
         <v>0.4514692701382628</v>
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.8266622813347001</v>
+        <v>0.8266622813347</v>
       </c>
       <c r="D122" t="n">
         <v>0.6833705273814914</v>
@@ -11438,7 +11438,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.6931098351556444</v>
+        <v>0.6931098351556443</v>
       </c>
       <c r="D124" t="n">
         <v>0.4804012435894848</v>
@@ -11458,7 +11458,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.7372461113703576</v>
+        <v>0.7372461113703577</v>
       </c>
       <c r="D125" t="n">
         <v>0.543531828730714</v>
@@ -11478,7 +11478,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.7280138325590415</v>
+        <v>0.7280138325590416</v>
       </c>
       <c r="D126" t="n">
         <v>0.5300041403973041</v>
@@ -11498,7 +11498,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.8107889470200711</v>
+        <v>0.8107889470200712</v>
       </c>
       <c r="D127" t="n">
         <v>0.657378716609916</v>
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.4201250777788016</v>
+        <v>0.4201250777788017</v>
       </c>
       <c r="D128" t="n">
         <v>0.1765050809786442</v>
@@ -11542,7 +11542,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.2941209522408159</v>
+        <v>0.294120952240816</v>
       </c>
       <c r="D129" t="n">
         <v>0.08650713454704428</v>
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.7285800184350217</v>
+        <v>0.7285800184350221</v>
       </c>
       <c r="D131" t="n">
         <v>0.5308288432627771</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.2479646030172199</v>
+        <v>0.24796460301722</v>
       </c>
       <c r="D132" t="n">
         <v>0.06148644434948745</v>
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.5282982421687018</v>
+        <v>0.5282982421687019</v>
       </c>
       <c r="D135" t="n">
         <v>0.2790990326785402</v>
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.7146379207192283</v>
+        <v>0.7146379207192285</v>
       </c>
       <c r="D136" t="n">
         <v>0.5107073577299025</v>
@@ -11696,19 +11696,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.3135205833479584</v>
+        <v>-0.3135205833479583</v>
       </c>
       <c r="D2" t="n">
         <v>0.09829515618284414</v>
@@ -11784,7 +11784,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5359659135609213</v>
+        <v>0.5359659135609212</v>
       </c>
       <c r="D3" t="n">
         <v>0.2872594604991929</v>
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.77025495551088</v>
+        <v>-0.7702549555108799</v>
       </c>
       <c r="D4" t="n">
         <v>0.5932926964890677</v>
@@ -11824,7 +11824,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.6605137381577277</v>
+        <v>-0.6605137381577275</v>
       </c>
       <c r="D5" t="n">
         <v>0.4362783982950952</v>
@@ -11864,7 +11864,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.6348917243710286</v>
+        <v>-0.6348917243710285</v>
       </c>
       <c r="D7" t="n">
         <v>0.4030875016748183</v>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1343354118257376</v>
+        <v>-0.1343354118257375</v>
       </c>
       <c r="D8" t="n">
         <v>0.01804600287039051</v>
@@ -11904,7 +11904,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4401023097425772</v>
+        <v>-0.4401023097425771</v>
       </c>
       <c r="D9" t="n">
         <v>0.1936900430407513</v>
@@ -11968,7 +11968,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.5123130418293965</v>
+        <v>-0.5123130418293966</v>
       </c>
       <c r="D12" t="n">
         <v>0.2624646528284891</v>
@@ -12028,7 +12028,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.831106158555343</v>
+        <v>0.8311061585553431</v>
       </c>
       <c r="D15" t="n">
         <v>0.6907374467886189</v>
@@ -12088,7 +12088,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.438675949589884</v>
+        <v>0.4386759495898841</v>
       </c>
       <c r="D18" t="n">
         <v>0.1924365887485865</v>
@@ -12152,7 +12152,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.1724619284442715</v>
+        <v>-0.1724619284442714</v>
       </c>
       <c r="D21" t="n">
         <v>0.02974311676271701</v>
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2131058651786875</v>
+        <v>0.2131058651786874</v>
       </c>
       <c r="D23" t="n">
         <v>0.04541410977355688</v>
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3740677586978173</v>
+        <v>0.3740677586978174</v>
       </c>
       <c r="D26" t="n">
         <v>0.1399266880972085</v>
@@ -12272,7 +12272,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.062916949505907</v>
+        <v>0.06291694950590698</v>
       </c>
       <c r="D27" t="n">
         <v>0.003958542535128856</v>
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.07146787709868095</v>
+        <v>0.07146787709868098</v>
       </c>
       <c r="D28" t="n">
         <v>0.005107657456992164</v>
@@ -12336,7 +12336,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01382885729081073</v>
+        <v>-0.01382885729081074</v>
       </c>
       <c r="D30" t="n">
         <v>0.0001912372939696095</v>
@@ -12376,7 +12376,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3446116538830708</v>
+        <v>0.3446116538830709</v>
       </c>
       <c r="D32" t="n">
         <v>0.1187571919920254</v>
@@ -12436,7 +12436,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6230404243288381</v>
+        <v>0.6230404243288383</v>
       </c>
       <c r="D35" t="n">
         <v>0.3881793703478588</v>
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.1769173876341837</v>
+        <v>-0.1769173876341838</v>
       </c>
       <c r="D42" t="n">
         <v>0.03129976204730405</v>
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.478500509280038</v>
+        <v>0.4785005092800381</v>
       </c>
       <c r="D44" t="n">
         <v>0.2289627373812559</v>
@@ -12640,7 +12640,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.09049245526309399</v>
+        <v>0.09049245526309393</v>
       </c>
       <c r="D45" t="n">
         <v>0.00818888445954306</v>
@@ -12660,7 +12660,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.4917541098488935</v>
+        <v>0.4917541098488936</v>
       </c>
       <c r="D46" t="n">
         <v>0.2418221045532776</v>
@@ -12684,7 +12684,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.01031719283366013</v>
+        <v>0.01031719283366019</v>
       </c>
       <c r="D47" t="n">
         <v>0.0001064444679669283</v>
@@ -12784,7 +12784,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.3365598929413993</v>
+        <v>-0.3365598929413992</v>
       </c>
       <c r="D52" t="n">
         <v>0.1132725615367261</v>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2743092600941675</v>
+        <v>0.2743092600941673</v>
       </c>
       <c r="D55" t="n">
         <v>0.07524557017340958</v>
@@ -12868,7 +12868,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.3677024752108224</v>
+        <v>0.3677024752108225</v>
       </c>
       <c r="D56" t="n">
         <v>0.1352051102761654</v>
@@ -12908,7 +12908,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.06784250283335991</v>
+        <v>0.06784250283335988</v>
       </c>
       <c r="D58" t="n">
         <v>0.004602605190694451</v>
@@ -12928,7 +12928,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.01707304576832727</v>
+        <v>-0.01707304576832728</v>
       </c>
       <c r="D59" t="n">
         <v>0.0002914888918073968</v>
@@ -12968,7 +12968,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.02601794561091793</v>
+        <v>-0.02601794561091794</v>
       </c>
       <c r="D61" t="n">
         <v>0.0006769334938126842</v>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.3922892525003667</v>
+        <v>0.3922892525003669</v>
       </c>
       <c r="D62" t="n">
         <v>0.1538908576272966</v>
@@ -13008,7 +13008,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.07735129015718123</v>
+        <v>-0.07735129015718127</v>
       </c>
       <c r="D63" t="n">
         <v>0.005983222088980444</v>
@@ -13028,7 +13028,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.07152071022883133</v>
+        <v>0.07152071022883132</v>
       </c>
       <c r="D64" t="n">
         <v>0.00511521199163646</v>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.6531711437481525</v>
+        <v>0.6531711437481527</v>
       </c>
       <c r="D69" t="n">
         <v>0.4266325430252696</v>
@@ -13172,7 +13172,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.4741795412785386</v>
+        <v>0.4741795412785388</v>
       </c>
       <c r="D71" t="n">
         <v>0.2248462373671251</v>
@@ -13192,7 +13192,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.2333851980237037</v>
+        <v>0.2333851980237036</v>
       </c>
       <c r="D72" t="n">
         <v>0.05446865065656337</v>
@@ -13212,7 +13212,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.04197945398374504</v>
+        <v>0.041979453983745</v>
       </c>
       <c r="D73" t="n">
         <v>0.001762274556773365</v>
@@ -13256,7 +13256,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.5248252207723324</v>
+        <v>0.5248252207723325</v>
       </c>
       <c r="D75" t="n">
         <v>0.2754415123587275</v>
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.278241572733671</v>
+        <v>-0.2782415727336709</v>
       </c>
       <c r="D77" t="n">
         <v>0.07741837279730676</v>
@@ -13316,7 +13316,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.2767037095761136</v>
+        <v>-0.2767037095761135</v>
       </c>
       <c r="D78" t="n">
         <v>0.07656494289318221</v>
@@ -13356,7 +13356,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.4126711271952282</v>
+        <v>0.4126711271952283</v>
       </c>
       <c r="D80" t="n">
         <v>0.1702974592205802</v>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.0141435693610894</v>
+        <v>-0.01414356936108931</v>
       </c>
       <c r="D81" t="n">
         <v>0.0002000405542719438</v>
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.3837142607326466</v>
+        <v>0.3837142607326467</v>
       </c>
       <c r="D82" t="n">
         <v>0.1472366338896015</v>
@@ -13440,7 +13440,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.4949129075512237</v>
+        <v>-0.4949129075512239</v>
       </c>
       <c r="D84" t="n">
         <v>0.2449387860608062</v>
@@ -13480,7 +13480,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.8641248449573203</v>
+        <v>0.8641248449573204</v>
       </c>
       <c r="D86" t="n">
         <v>0.7467117476725129</v>
@@ -13500,7 +13500,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9844340176477966</v>
+        <v>0.9844340176477968</v>
       </c>
       <c r="D87" t="n">
         <v>0.9691103351021829</v>
@@ -13540,7 +13540,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.4673700761090115</v>
+        <v>0.4673700761090117</v>
       </c>
       <c r="D89" t="n">
         <v>0.2184347880421433</v>
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.6719689253869812</v>
+        <v>0.6719689253869813</v>
       </c>
       <c r="D90" t="n">
         <v>0.4515422366857344</v>
@@ -13580,7 +13580,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.6262215436510605</v>
+        <v>0.6262215436510606</v>
       </c>
       <c r="D91" t="n">
         <v>0.3921534217327172</v>
@@ -13604,7 +13604,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.2525923809755817</v>
+        <v>0.2525923809755816</v>
       </c>
       <c r="D92" t="n">
         <v>0.0638029109269134</v>
@@ -13624,7 +13624,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.4430245158503338</v>
+        <v>-0.4430245158503336</v>
       </c>
       <c r="D93" t="n">
         <v>0.1962707216444227</v>
@@ -13644,7 +13644,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.7432502119203731</v>
+        <v>0.7432502119203732</v>
       </c>
       <c r="D94" t="n">
         <v>0.5524208775196797</v>
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.5717395102796562</v>
+        <v>0.5717395102796563</v>
       </c>
       <c r="D95" t="n">
         <v>0.3268860676148211</v>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.7719471335936071</v>
+        <v>0.7719471335936074</v>
       </c>
       <c r="D96" t="n">
         <v>0.5959023770633867</v>
@@ -13744,7 +13744,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.3600657126196631</v>
+        <v>0.360065712619663</v>
       </c>
       <c r="D99" t="n">
         <v>0.1296473174043058</v>
@@ -13788,7 +13788,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.2522962335784749</v>
+        <v>0.252296233578475</v>
       </c>
       <c r="D101" t="n">
         <v>0.06365338947788438</v>
@@ -13828,7 +13828,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.7063748328590863</v>
+        <v>0.7063748328590862</v>
       </c>
       <c r="D103" t="n">
         <v>0.498965404496702</v>
@@ -13868,7 +13868,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.7590354413645142</v>
+        <v>0.7590354413645144</v>
       </c>
       <c r="D105" t="n">
         <v>0.576134801247423</v>
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.639020576242737</v>
+        <v>0.6390205762427369</v>
       </c>
       <c r="D106" t="n">
         <v>0.4083472968615997</v>
@@ -13908,7 +13908,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.03481250207869946</v>
+        <v>0.03481250207869941</v>
       </c>
       <c r="D107" t="n">
         <v>0.00121191030097945</v>
@@ -13928,7 +13928,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.4186056163030897</v>
+        <v>0.4186056163030898</v>
       </c>
       <c r="D108" t="n">
         <v>0.1752306620004895</v>
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.3695260920034813</v>
+        <v>0.3695260920034812</v>
       </c>
       <c r="D110" t="n">
         <v>0.1365495326713653</v>
@@ -14012,7 +14012,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.4511819414278284</v>
+        <v>0.4511819414278283</v>
       </c>
       <c r="D112" t="n">
         <v>0.2035651442705843</v>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.3732021273115079</v>
+        <v>0.373202127311508</v>
       </c>
       <c r="D113" t="n">
         <v>0.139279827829835</v>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.4475076200993082</v>
+        <v>0.4475076200993083</v>
       </c>
       <c r="D114" t="n">
         <v>0.2002630700469468</v>
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.3697451235558962</v>
+        <v>0.3697451235558963</v>
       </c>
       <c r="D115" t="n">
         <v>0.136711456393365</v>
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.7746146070114357</v>
+        <v>0.7746146070114361</v>
       </c>
       <c r="D116" t="n">
         <v>0.6000277893954812</v>
@@ -14112,7 +14112,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.5316217156531086</v>
+        <v>0.5316217156531085</v>
       </c>
       <c r="D117" t="n">
         <v>0.2826216485539546</v>
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.8223951902907425</v>
+        <v>0.8223951902907424</v>
       </c>
       <c r="D118" t="n">
         <v>0.6763338490133464</v>
@@ -14156,7 +14156,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.3635916527946091</v>
+        <v>0.3635916527946092</v>
       </c>
       <c r="D119" t="n">
         <v>0.1321988899819156</v>
@@ -14176,7 +14176,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.1873888936821263</v>
+        <v>0.1873888936821264</v>
       </c>
       <c r="D120" t="n">
         <v>0.03511459747541126</v>
@@ -14216,7 +14216,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.3865652092318083</v>
+        <v>0.3865652092318084</v>
       </c>
       <c r="D122" t="n">
         <v>0.1494326609884318</v>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.5575187255608762</v>
+        <v>0.5575187255608763</v>
       </c>
       <c r="D123" t="n">
         <v>0.3108271293510237</v>
@@ -14276,7 +14276,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.8146981740547944</v>
+        <v>0.8146981740547945</v>
       </c>
       <c r="D125" t="n">
         <v>0.6637331148082163</v>
@@ -14460,7 +14460,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.5754048020638607</v>
+        <v>0.5754048020638609</v>
       </c>
       <c r="D134" t="n">
         <v>0.3310906862381507</v>
@@ -14480,7 +14480,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.009496166865411909</v>
+        <v>-0.009496166865411892</v>
       </c>
       <c r="D135" t="n">
         <v>9.017718513574685e-05</v>
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.3899398794648677</v>
+        <v>0.3899398794648678</v>
       </c>
       <c r="D136" t="n">
         <v>0.1520531095970755</v>
@@ -14514,19 +14514,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A118"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>

--- a/Results/metrics_summary_sar.xlsx
+++ b/Results/metrics_summary_sar.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Location_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Location_3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Location_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Location_5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Location_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.6157831284763855</v>
+        <v>-0.6157831284763854</v>
       </c>
       <c r="D3" t="n">
         <v>0.3791888613161647</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.3696038091529081</v>
+        <v>-0.369603809152908</v>
       </c>
       <c r="D4" t="n">
         <v>0.1366069757403393</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.6190260097983553</v>
+        <v>-0.6190260097983552</v>
       </c>
       <c r="D6" t="n">
         <v>0.3831932008068735</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2661040796248839</v>
+        <v>-0.2661040796248838</v>
       </c>
       <c r="D7" t="n">
         <v>0.07081138119300651</v>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4542417630388497</v>
+        <v>-0.4542417630388496</v>
       </c>
       <c r="D9" t="n">
         <v>0.2063355792886424</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.02138129673244571</v>
+        <v>-0.02138129673244565</v>
       </c>
       <c r="D10" t="n">
         <v>0.0004571598499608934</v>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4956728910689746</v>
+        <v>0.4956728910689745</v>
       </c>
       <c r="D11" t="n">
         <v>0.2456916149406755</v>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6427032170728498</v>
+        <v>0.6427032170728496</v>
       </c>
       <c r="D12" t="n">
         <v>0.4130674252357906</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.07552871258567577</v>
+        <v>-0.07552871258567576</v>
       </c>
       <c r="D14" t="n">
         <v>0.005704586424849624</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6368544411552606</v>
+        <v>0.6368544411552605</v>
       </c>
       <c r="D15" t="n">
         <v>0.4055835792191793</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4703118199882752</v>
+        <v>0.470311819988275</v>
       </c>
       <c r="D18" t="n">
         <v>0.2211932080206836</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.06668999884850219</v>
+        <v>0.06668999884850213</v>
       </c>
       <c r="D19" t="n">
         <v>0.004447555946413217</v>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.408282860105611</v>
+        <v>0.4082828601056111</v>
       </c>
       <c r="D22" t="n">
         <v>0.166694893856018</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2365353157351027</v>
+        <v>0.2365353157351028</v>
       </c>
       <c r="D23" t="n">
         <v>0.05594895558990477</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3288562114493244</v>
+        <v>0.3288562114493243</v>
       </c>
       <c r="D24" t="n">
         <v>0.1081464078088027</v>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2082004805843874</v>
+        <v>0.2082004805843875</v>
       </c>
       <c r="D25" t="n">
         <v>0.04334744011556989</v>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4311757519705738</v>
+        <v>0.431175751970574</v>
       </c>
       <c r="D29" t="n">
         <v>0.1859125290873899</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2688589190891724</v>
+        <v>0.2688589190891725</v>
       </c>
       <c r="D31" t="n">
         <v>0.0722851183737982</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.3955328408631572</v>
+        <v>0.3955328408631571</v>
       </c>
       <c r="D33" t="n">
         <v>0.1564462282012797</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.05616993229388921</v>
+        <v>-0.05616993229388925</v>
       </c>
       <c r="D34" t="n">
         <v>0.003155061293900108</v>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.1832459024130426</v>
+        <v>0.1832459024130427</v>
       </c>
       <c r="D37" t="n">
         <v>0.03357906075117036</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.6677104856933921</v>
+        <v>0.667710485693392</v>
       </c>
       <c r="D38" t="n">
         <v>0.4458372927049056</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.2097994739051305</v>
+        <v>0.2097994739051304</v>
       </c>
       <c r="D39" t="n">
         <v>0.0440158192508695</v>
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.6504139373719298</v>
+        <v>0.6504139373719297</v>
       </c>
       <c r="D40" t="n">
         <v>0.4230382899276566</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.7646136892746446</v>
+        <v>0.7646136892746447</v>
       </c>
       <c r="D41" t="n">
         <v>0.5846340938261826</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5370880563091587</v>
+        <v>0.5370880563091586</v>
       </c>
       <c r="D42" t="n">
         <v>0.2884635802299501</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.6824110741644985</v>
+        <v>0.6824110741644984</v>
       </c>
       <c r="D43" t="n">
         <v>0.4656848741423449</v>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6504906698997274</v>
+        <v>0.6504906698997271</v>
       </c>
       <c r="D45" t="n">
         <v>0.4231381116265958</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8264907377932086</v>
+        <v>0.8264907377932085</v>
       </c>
       <c r="D46" t="n">
         <v>0.6830869396579624</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.3302733365487711</v>
+        <v>0.3302733365487712</v>
       </c>
       <c r="D49" t="n">
         <v>0.1090804768350578</v>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.6411990150089458</v>
+        <v>0.641199015008946</v>
       </c>
       <c r="D50" t="n">
         <v>0.4111361768484426</v>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.1311171996513416</v>
+        <v>0.1311171996513417</v>
       </c>
       <c r="D51" t="n">
         <v>0.01719172004440978</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.6412218000491923</v>
+        <v>0.6412218000491924</v>
       </c>
       <c r="D55" t="n">
         <v>0.4111653968583263</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.2427643699917939</v>
+        <v>0.2427643699917938</v>
       </c>
       <c r="D56" t="n">
         <v>0.05893453933751259</v>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.4340755631913889</v>
+        <v>0.434075563191389</v>
       </c>
       <c r="D58" t="n">
         <v>0.1884215945599215</v>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.3035288444921358</v>
+        <v>0.3035288444921359</v>
       </c>
       <c r="D59" t="n">
         <v>0.09212975943873118</v>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.4942399061458896</v>
+        <v>0.4942399061458898</v>
       </c>
       <c r="D62" t="n">
         <v>0.2442730848270978</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.4375564777123873</v>
+        <v>0.4375564777123872</v>
       </c>
       <c r="D65" t="n">
         <v>0.1914556711880709</v>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.486412155476582</v>
+        <v>0.4864121554765818</v>
       </c>
       <c r="D66" t="n">
         <v>0.2365967849953744</v>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.0526461616647828</v>
+        <v>-0.05264616166478278</v>
       </c>
       <c r="D70" t="n">
         <v>0.002771618338034445</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.2851223156521815</v>
+        <v>0.2851223156521814</v>
       </c>
       <c r="D72" t="n">
         <v>0.08129473488286218</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.5187633639367175</v>
+        <v>0.5187633639367174</v>
       </c>
       <c r="D74" t="n">
         <v>0.2691154277629395</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.06031713165666207</v>
+        <v>0.06031713165666205</v>
       </c>
       <c r="D75" t="n">
         <v>0.003638156371287104</v>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7243401005944847</v>
+        <v>0.7243401005944848</v>
       </c>
       <c r="D77" t="n">
         <v>0.5246685813292288</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.5707266261304988</v>
+        <v>0.5707266261304987</v>
       </c>
       <c r="D79" t="n">
         <v>0.3257288817743022</v>
@@ -2084,7 +2084,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.5693315461784039</v>
+        <v>0.5693315461784038</v>
       </c>
       <c r="D80" t="n">
         <v>0.3241384094738919</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5071673733153158</v>
+        <v>0.5071673733153157</v>
       </c>
       <c r="D81" t="n">
         <v>0.2572187445555569</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.7653559771093855</v>
+        <v>0.7653559771093856</v>
       </c>
       <c r="D82" t="n">
         <v>0.5857697716970628</v>
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.7410074523023102</v>
+        <v>0.74100745230231</v>
       </c>
       <c r="D84" t="n">
         <v>0.5490920443675604</v>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.3892921647736141</v>
+        <v>0.3892921647736142</v>
       </c>
       <c r="D86" t="n">
         <v>0.1515483895541267</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.6944266553484334</v>
+        <v>0.6944266553484335</v>
       </c>
       <c r="D88" t="n">
         <v>0.482228379658412</v>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.47377337493407</v>
+        <v>0.4737733749340701</v>
       </c>
       <c r="D89" t="n">
         <v>0.224461210796419</v>
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.8308228882276854</v>
+        <v>0.8308228882276851</v>
       </c>
       <c r="D90" t="n">
         <v>0.6902666716029926</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.662909405094961</v>
+        <v>0.6629094050949611</v>
       </c>
       <c r="D93" t="n">
         <v>0.4394488793633552</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.08471722482498995</v>
+        <v>-0.08471722482498996</v>
       </c>
       <c r="D95" t="n">
         <v>0.007177008182047888</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.474449988022795</v>
+        <v>0.4744499880227949</v>
       </c>
       <c r="D99" t="n">
         <v>0.2251027911348303</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.09221495257322018</v>
+        <v>0.09221495257322024</v>
       </c>
       <c r="D100" t="n">
         <v>0.008503597478081253</v>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.3347088080883974</v>
+        <v>0.3347088080883975</v>
       </c>
       <c r="D103" t="n">
         <v>0.1120299862119557</v>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.5671571530624674</v>
+        <v>0.5671571530624673</v>
       </c>
       <c r="D105" t="n">
         <v>0.3216672362699231</v>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.248339000666669</v>
+        <v>0.2483390006666691</v>
       </c>
       <c r="D106" t="n">
         <v>0.06167225925211987</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.05493110624020972</v>
+        <v>0.05493110624020969</v>
       </c>
       <c r="D107" t="n">
         <v>0.003017426432773209</v>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.4094082021114122</v>
+        <v>0.409408202111412</v>
       </c>
       <c r="D108" t="n">
         <v>0.1676150759560988</v>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.09278009535680057</v>
+        <v>-0.0927800953568006</v>
       </c>
       <c r="D109" t="n">
         <v>0.008608146094417001</v>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.9036464236479418</v>
+        <v>0.9036464236479416</v>
       </c>
       <c r="D110" t="n">
         <v>0.8165768589717148</v>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.5612187838022635</v>
+        <v>0.5612187838022633</v>
       </c>
       <c r="D111" t="n">
         <v>0.3149665232924914</v>
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.8521505712359013</v>
+        <v>0.8521505712359012</v>
       </c>
       <c r="D112" t="n">
         <v>0.7261605960576729</v>
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.8745954603970993</v>
+        <v>0.8745954603970991</v>
       </c>
       <c r="D114" t="n">
         <v>0.7649172193472136</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.8396786139719838</v>
+        <v>0.8396786139719836</v>
       </c>
       <c r="D115" t="n">
         <v>0.7050601747619116</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.8597313412012313</v>
+        <v>0.859731341201231</v>
       </c>
       <c r="D117" t="n">
         <v>0.7391379790436674</v>
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.7890842825745168</v>
+        <v>0.7890842825745166</v>
       </c>
       <c r="D118" t="n">
         <v>0.6226540050061393</v>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.9079355401672646</v>
+        <v>0.9079355401672647</v>
       </c>
       <c r="D119" t="n">
         <v>0.8243469450988226</v>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.5799583136919303</v>
+        <v>0.5799583136919302</v>
       </c>
       <c r="D120" t="n">
         <v>0.3363516456203873</v>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.6968407868655849</v>
+        <v>0.696840786865585</v>
       </c>
       <c r="D122" t="n">
         <v>0.4855870822394474</v>
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.8262119438985726</v>
+        <v>0.8262119438985727</v>
       </c>
       <c r="D124" t="n">
         <v>0.6826261762406577</v>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.8794425527222864</v>
+        <v>0.8794425527222863</v>
       </c>
       <c r="D126" t="n">
         <v>0.7734192035386912</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.7665475501580529</v>
+        <v>0.7665475501580528</v>
       </c>
       <c r="D127" t="n">
         <v>0.5875951466533128</v>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.03134391467740509</v>
+        <v>0.03134391467740508</v>
       </c>
       <c r="D129" t="n">
         <v>0.000982440987304452</v>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.4470902178356175</v>
+        <v>0.4470902178356174</v>
       </c>
       <c r="D132" t="n">
         <v>0.1998896628842997</v>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.5715998920925696</v>
+        <v>0.5715998920925695</v>
       </c>
       <c r="D135" t="n">
         <v>0.326726436640237</v>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.5481594436112558</v>
+        <v>0.5481594436112559</v>
       </c>
       <c r="D136" t="n">
         <v>0.3004787756202016</v>
@@ -3242,19 +3242,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A101:A109"/>
     <mergeCell ref="A110:A118"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.6252378377212857</v>
+        <v>-0.6252378377212855</v>
       </c>
       <c r="D2" t="n">
         <v>0.3909223537183885</v>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.7362132135686816</v>
+        <v>-0.7362132135686817</v>
       </c>
       <c r="D3" t="n">
         <v>0.5420098958331254</v>
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.09373604646107869</v>
+        <v>0.09373604646107868</v>
       </c>
       <c r="D5" t="n">
         <v>0.008786446406153503</v>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.5819801400922189</v>
+        <v>-0.5819801400922187</v>
       </c>
       <c r="D6" t="n">
         <v>0.3387008834617587</v>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2789720850768648</v>
+        <v>-0.2789720850768647</v>
       </c>
       <c r="D7" t="n">
         <v>0.07782542425213347</v>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.4340574778683137</v>
+        <v>-0.4340574778683139</v>
       </c>
       <c r="D10" t="n">
         <v>0.1884058940934017</v>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6400432071653505</v>
+        <v>0.6400432071653503</v>
       </c>
       <c r="D11" t="n">
         <v>0.4096553070385077</v>
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2882580871663131</v>
+        <v>0.2882580871663132</v>
       </c>
       <c r="D13" t="n">
         <v>0.08309272481678184</v>
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.06592135444301518</v>
+        <v>-0.06592135444301514</v>
       </c>
       <c r="D14" t="n">
         <v>0.004345624971601632</v>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.4452446897138479</v>
+        <v>0.4452446897138481</v>
       </c>
       <c r="D19" t="n">
         <v>0.1982428337183808</v>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7955694908344321</v>
+        <v>0.7955694908344318</v>
       </c>
       <c r="D20" t="n">
         <v>0.632930814746557</v>
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3593175864784182</v>
+        <v>0.3593175864784183</v>
       </c>
       <c r="D23" t="n">
         <v>0.1291091279526757</v>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5633396874199954</v>
+        <v>0.5633396874199952</v>
       </c>
       <c r="D24" t="n">
         <v>0.3173516034224579</v>
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5669863466615293</v>
+        <v>0.5669863466615291</v>
       </c>
       <c r="D25" t="n">
         <v>0.3214735173005877</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5628425008599227</v>
+        <v>0.5628425008599228</v>
       </c>
       <c r="D27" t="n">
         <v>0.3167916807742522</v>
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6286546743056751</v>
+        <v>0.6286546743056752</v>
       </c>
       <c r="D28" t="n">
         <v>0.3952066995263744</v>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.2240653714122478</v>
+        <v>-0.2240653714122477</v>
       </c>
       <c r="D29" t="n">
         <v>0.05020529066610852</v>
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.1660176427100366</v>
+        <v>-0.1660176427100365</v>
       </c>
       <c r="D33" t="n">
         <v>0.02756185769099733</v>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.2864456488580049</v>
+        <v>-0.2864456488580048</v>
       </c>
       <c r="D34" t="n">
         <v>0.08205110974968341</v>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3229655110740047</v>
+        <v>0.3229655110740046</v>
       </c>
       <c r="D38" t="n">
         <v>0.104306721343293</v>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4769843296047698</v>
+        <v>0.4769843296047697</v>
       </c>
       <c r="D40" t="n">
         <v>0.2275140506885116</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.3034369698806861</v>
+        <v>0.303436969880686</v>
       </c>
       <c r="D42" t="n">
         <v>0.09207399469037239</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.627157568315948</v>
+        <v>0.6271575683159478</v>
       </c>
       <c r="D43" t="n">
         <v>0.3933266154959729</v>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.0470397256077548</v>
+        <v>-0.04703972560775478</v>
       </c>
       <c r="D44" t="n">
         <v>0.00221273578525286</v>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.4293597445309266</v>
+        <v>0.4293597445309267</v>
       </c>
       <c r="D45" t="n">
         <v>0.1843497902236625</v>
@@ -4230,7 +4230,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.1073255179770453</v>
+        <v>0.1073255179770452</v>
       </c>
       <c r="D47" t="n">
         <v>0.01151876680904105</v>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.09711163595272862</v>
+        <v>0.09711163595272858</v>
       </c>
       <c r="D51" t="n">
         <v>0.009430669837415299</v>
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.06499987967454353</v>
+        <v>0.06499987967454356</v>
       </c>
       <c r="D53" t="n">
         <v>0.004224984357705139</v>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.2546829060964493</v>
+        <v>0.2546829060964492</v>
       </c>
       <c r="D54" t="n">
         <v>0.06486338265773274</v>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.008910377110647044</v>
+        <v>-0.0089103771106471</v>
       </c>
       <c r="D55" t="n">
         <v>7.939482025394358e-05</v>
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8667618252355703</v>
+        <v>0.8667618252355701</v>
       </c>
       <c r="D56" t="n">
         <v>0.7512760616856969</v>
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.6191340360755596</v>
+        <v>0.6191340360755595</v>
       </c>
       <c r="D58" t="n">
         <v>0.3833269546272123</v>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.5897873944140319</v>
+        <v>0.5897873944140321</v>
       </c>
       <c r="D59" t="n">
         <v>0.3478491706096931</v>
@@ -4494,7 +4494,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.6717962557673369</v>
+        <v>0.6717962557673367</v>
       </c>
       <c r="D60" t="n">
         <v>0.4513102092630132</v>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.7635420269794813</v>
+        <v>0.763542026979481</v>
       </c>
       <c r="D61" t="n">
         <v>0.5829964269639347</v>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.2777565748602329</v>
+        <v>-0.277756574860233</v>
       </c>
       <c r="D75" t="n">
         <v>0.07714871487808821</v>
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7030814090032351</v>
+        <v>0.7030814090032353</v>
       </c>
       <c r="D77" t="n">
         <v>0.4943234676859748</v>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.5490306014091636</v>
+        <v>0.5490306014091638</v>
       </c>
       <c r="D79" t="n">
         <v>0.3014346012837082</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.006573495969941667</v>
+        <v>0.006573495969941653</v>
       </c>
       <c r="D80" t="n">
         <v>4.321084926683913e-05</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.07828065029595348</v>
+        <v>0.0782806502959535</v>
       </c>
       <c r="D82" t="n">
         <v>0.006127860210757365</v>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.8943288268475332</v>
+        <v>0.8943288268475331</v>
       </c>
       <c r="D83" t="n">
         <v>0.7998240505304851</v>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.7431361373683326</v>
+        <v>0.7431361373683327</v>
       </c>
       <c r="D85" t="n">
         <v>0.5522513186627257</v>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.4394070727497907</v>
+        <v>0.4394070727497909</v>
       </c>
       <c r="D86" t="n">
         <v>0.19307857558254</v>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.8739867894678618</v>
+        <v>0.8739867894678617</v>
       </c>
       <c r="D87" t="n">
         <v>0.7638529081643406</v>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.4542965221700389</v>
+        <v>-0.454296522170039</v>
       </c>
       <c r="D89" t="n">
         <v>0.2063853300557927</v>
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.677493617066367</v>
+        <v>0.6774936170663672</v>
       </c>
       <c r="D91" t="n">
         <v>0.4589976011656693</v>
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.5838898382363505</v>
+        <v>0.5838898382363504</v>
       </c>
       <c r="D92" t="n">
         <v>0.3409273431956714</v>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.6413952573098413</v>
+        <v>0.6413952573098411</v>
       </c>
       <c r="D93" t="n">
         <v>0.4113878760995572</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.5079208724412489</v>
+        <v>0.5079208724412488</v>
       </c>
       <c r="D96" t="n">
         <v>0.2579836126614795</v>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.4180029877429968</v>
+        <v>-0.4180029877429967</v>
       </c>
       <c r="D98" t="n">
         <v>0.1747264977620719</v>
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.4238569475989544</v>
+        <v>0.4238569475989545</v>
       </c>
       <c r="D100" t="n">
         <v>0.1796547120279028</v>
@@ -5334,7 +5334,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.5612237070722406</v>
+        <v>0.5612237070722405</v>
       </c>
       <c r="D101" t="n">
         <v>0.314972049379908</v>
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.761781003743973</v>
+        <v>0.7617810037439731</v>
       </c>
       <c r="D102" t="n">
         <v>0.5803102976651749</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.1561668225202975</v>
+        <v>-0.1561668225202976</v>
       </c>
       <c r="D104" t="n">
         <v>0.02438807645608612</v>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.5389234649475412</v>
+        <v>0.5389234649475411</v>
       </c>
       <c r="D105" t="n">
         <v>0.2904385010710636</v>
@@ -5454,7 +5454,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.3781189463544468</v>
+        <v>-0.3781189463544469</v>
       </c>
       <c r="D107" t="n">
         <v>0.142973937592197</v>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.3586623272542619</v>
+        <v>0.3586623272542618</v>
       </c>
       <c r="D108" t="n">
         <v>0.1286386649914432</v>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.4136259696181437</v>
+        <v>0.4136259696181438</v>
       </c>
       <c r="D109" t="n">
         <v>0.1710864427425496</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.8145945972286376</v>
+        <v>0.8145945972286377</v>
       </c>
       <c r="D112" t="n">
         <v>0.6635643578340863</v>
@@ -5578,7 +5578,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.8372532546297178</v>
+        <v>0.8372532546297179</v>
       </c>
       <c r="D113" t="n">
         <v>0.7009930123880554</v>
@@ -5598,7 +5598,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.7237676464231648</v>
+        <v>0.7237676464231647</v>
       </c>
       <c r="D114" t="n">
         <v>0.523839606008927</v>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.8787745189383653</v>
+        <v>0.8787745189383656</v>
       </c>
       <c r="D115" t="n">
         <v>0.7722446551353556</v>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-0.2184978098704854</v>
+        <v>-0.2184978098704855</v>
       </c>
       <c r="D116" t="n">
         <v>0.04774129291819882</v>
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.7595990193799284</v>
+        <v>0.7595990193799285</v>
       </c>
       <c r="D117" t="n">
         <v>0.5769906702429488</v>
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.5370113674859825</v>
+        <v>0.5370113674859827</v>
       </c>
       <c r="D118" t="n">
         <v>0.2883812088091652</v>
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.8296594034167585</v>
+        <v>0.8296594034167586</v>
       </c>
       <c r="D121" t="n">
         <v>0.6883347256778513</v>
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.8161352794810047</v>
+        <v>0.8161352794810048</v>
       </c>
       <c r="D122" t="n">
         <v>0.6660767944135381</v>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-0.2254702369529219</v>
+        <v>-0.225470236952922</v>
       </c>
       <c r="D125" t="n">
         <v>0.05083682775160678</v>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.7629432736381321</v>
+        <v>0.7629432736381322</v>
       </c>
       <c r="D126" t="n">
         <v>0.58208243878967</v>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.5762254632760195</v>
+        <v>0.5762254632760198</v>
       </c>
       <c r="D127" t="n">
         <v>0.3320357845276636</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.3118305147223251</v>
+        <v>0.311830514722325</v>
       </c>
       <c r="D128" t="n">
         <v>0.0972382699119901</v>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-0.1851013899876674</v>
+        <v>-0.1851013899876675</v>
       </c>
       <c r="D129" t="n">
         <v>0.03426252457536658</v>
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.379455878965615</v>
+        <v>0.3794558789656151</v>
       </c>
       <c r="D130" t="n">
         <v>0.1439867640815675</v>
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.6462612468376419</v>
+        <v>0.646261246837642</v>
       </c>
       <c r="D131" t="n">
         <v>0.4176535991641436</v>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.2526529642109377</v>
+        <v>0.2526529642109376</v>
       </c>
       <c r="D132" t="n">
         <v>0.0638335203245733</v>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.1339589091866973</v>
+        <v>-0.1339589091866972</v>
       </c>
       <c r="D134" t="n">
         <v>0.0179449893504898</v>
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.07924488082444664</v>
+        <v>0.07924488082444667</v>
       </c>
       <c r="D136" t="n">
         <v>0.006279751136880759</v>
@@ -6060,19 +6060,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A101:A109"/>
     <mergeCell ref="A110:A118"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>
@@ -6128,7 +6128,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.3965604970183708</v>
+        <v>-0.3965604970183707</v>
       </c>
       <c r="D2" t="n">
         <v>0.1572602277954572</v>
@@ -6188,7 +6188,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1989923792969924</v>
+        <v>-0.1989923792969925</v>
       </c>
       <c r="D5" t="n">
         <v>0.03959796701827809</v>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.4702618227808741</v>
+        <v>-0.4702618227808743</v>
       </c>
       <c r="D6" t="n">
         <v>0.2211461819651903</v>
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3692873200649866</v>
+        <v>0.3692873200649865</v>
       </c>
       <c r="D8" t="n">
         <v>0.1363731247607798</v>
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4752754288563175</v>
+        <v>-0.4752754288563174</v>
       </c>
       <c r="D9" t="n">
         <v>0.2258867332745564</v>
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1833853154560269</v>
+        <v>-0.183385315456027</v>
       </c>
       <c r="D10" t="n">
         <v>0.03363017392490651</v>
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2810325217637929</v>
+        <v>0.281032521763793</v>
       </c>
       <c r="D13" t="n">
         <v>0.07897927828891677</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2010818089201146</v>
+        <v>0.2010818089201147</v>
       </c>
       <c r="D19" t="n">
         <v>0.04043389387858549</v>
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2373289720835428</v>
+        <v>0.2373289720835427</v>
       </c>
       <c r="D20" t="n">
         <v>0.05632504099023103</v>
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.07604223377821806</v>
+        <v>0.07604223377821805</v>
       </c>
       <c r="D21" t="n">
         <v>0.005782421317981168</v>
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.01784290159706107</v>
+        <v>-0.0178429015970611</v>
       </c>
       <c r="D22" t="n">
         <v>0.0003183691374024045</v>
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.0776030159292552</v>
+        <v>-0.07760301592925521</v>
       </c>
       <c r="D23" t="n">
         <v>0.00602222808131624</v>
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.07441866556543737</v>
+        <v>0.07441866556543732</v>
       </c>
       <c r="D24" t="n">
         <v>0.005538137784540418</v>
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0250446176575664</v>
+        <v>0.02504461765756635</v>
       </c>
       <c r="D25" t="n">
         <v>0.0006272328736136835</v>
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.08065467658716959</v>
+        <v>-0.08065467658716954</v>
       </c>
       <c r="D27" t="n">
         <v>0.006505176855380912</v>
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3864625784301384</v>
+        <v>0.3864625784301383</v>
       </c>
       <c r="D29" t="n">
         <v>0.1493533245268708</v>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5672955172915316</v>
+        <v>0.5672955172915317</v>
       </c>
       <c r="D33" t="n">
         <v>0.3218242039390666</v>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6232075671139397</v>
+        <v>0.6232075671139395</v>
       </c>
       <c r="D34" t="n">
         <v>0.3883876717080755</v>
@@ -6800,7 +6800,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5421631273496318</v>
+        <v>0.5421631273496317</v>
       </c>
       <c r="D35" t="n">
         <v>0.2939408566575329</v>
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.6958383304373186</v>
+        <v>0.6958383304373184</v>
       </c>
       <c r="D36" t="n">
         <v>0.4841909821057946</v>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.8912056309502262</v>
+        <v>0.8912056309502261</v>
       </c>
       <c r="D39" t="n">
         <v>0.7942474766373906</v>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9109885020934784</v>
+        <v>0.9109885020934783</v>
       </c>
       <c r="D40" t="n">
         <v>0.8299000509465192</v>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.8001185497351769</v>
+        <v>0.800118549735177</v>
       </c>
       <c r="D41" t="n">
         <v>0.640189693630323</v>
@@ -6944,7 +6944,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.8664169696196325</v>
+        <v>0.8664169696196327</v>
       </c>
       <c r="D42" t="n">
         <v>0.7506783652448671</v>
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.7786255710574737</v>
+        <v>0.7786255710574739</v>
       </c>
       <c r="D43" t="n">
         <v>0.6062577799045771</v>
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.6793077965257874</v>
+        <v>0.6793077965257875</v>
       </c>
       <c r="D44" t="n">
         <v>0.4614590824207209</v>
@@ -7024,7 +7024,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.8727726008618302</v>
+        <v>0.8727726008618301</v>
       </c>
       <c r="D46" t="n">
         <v>0.7617320128151235</v>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.6611640927219357</v>
+        <v>0.6611640927219355</v>
       </c>
       <c r="D47" t="n">
         <v>0.4371379575048203</v>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.7965827419022593</v>
+        <v>0.7965827419022591</v>
       </c>
       <c r="D49" t="n">
         <v>0.6345440646965211</v>
@@ -7108,7 +7108,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.7029451939777051</v>
+        <v>0.7029451939777049</v>
       </c>
       <c r="D50" t="n">
         <v>0.4941319457363531</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.5993624209530813</v>
+        <v>0.5993624209530812</v>
       </c>
       <c r="D52" t="n">
         <v>0.3592353116507386</v>
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.7456326500711071</v>
+        <v>0.745632650071107</v>
       </c>
       <c r="D53" t="n">
         <v>0.5559680488520623</v>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.7940852930816588</v>
+        <v>0.7940852930816586</v>
       </c>
       <c r="D55" t="n">
         <v>0.6305714526885835</v>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.1171431527265024</v>
+        <v>0.1171431527265023</v>
       </c>
       <c r="D56" t="n">
         <v>0.01372251823070466</v>
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.2419615576462632</v>
+        <v>-0.2419615576462633</v>
       </c>
       <c r="D58" t="n">
         <v>0.05854539537860597</v>
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.116968150530692</v>
+        <v>-0.1169681505306921</v>
       </c>
       <c r="D61" t="n">
         <v>0.01368154823857063</v>
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.2919875918509434</v>
+        <v>-0.2919875918509435</v>
       </c>
       <c r="D64" t="n">
         <v>0.08525675379491315</v>
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.2047063890044706</v>
+        <v>0.2047063890044705</v>
       </c>
       <c r="D65" t="n">
         <v>0.04190470569924959</v>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.3579979666805241</v>
+        <v>0.357997966680524</v>
       </c>
       <c r="D66" t="n">
         <v>0.1281625441473896</v>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.4909475936425312</v>
+        <v>0.490947593642531</v>
       </c>
       <c r="D68" t="n">
         <v>0.2410295397033918</v>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.5149073337328525</v>
+        <v>0.5149073337328524</v>
       </c>
       <c r="D69" t="n">
         <v>0.265129562331875</v>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.4837537762716647</v>
+        <v>0.4837537762716646</v>
       </c>
       <c r="D70" t="n">
         <v>0.2340177160570958</v>
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.3744681274168975</v>
+        <v>0.3744681274168974</v>
       </c>
       <c r="D71" t="n">
         <v>0.1402263784511178</v>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.6159884213779847</v>
+        <v>0.6159884213779846</v>
       </c>
       <c r="D72" t="n">
         <v>0.3794417352717414</v>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.4301616287202645</v>
+        <v>0.4301616287202644</v>
       </c>
       <c r="D73" t="n">
         <v>0.1850390268232707</v>
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.7566903247501009</v>
+        <v>0.7566903247501007</v>
       </c>
       <c r="D74" t="n">
         <v>0.5725802475704128</v>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.767638612551233</v>
+        <v>0.7676386125512329</v>
       </c>
       <c r="D77" t="n">
         <v>0.5892690394795819</v>
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.7194581679876026</v>
+        <v>0.7194581679876024</v>
       </c>
       <c r="D81" t="n">
         <v>0.5176200554840772</v>
@@ -7784,7 +7784,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.880252989000728</v>
+        <v>0.8802529890007281</v>
       </c>
       <c r="D83" t="n">
         <v>0.7748453246447162</v>
@@ -7824,7 +7824,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8805876904625606</v>
+        <v>0.8805876904625609</v>
       </c>
       <c r="D85" t="n">
         <v>0.775434680594187</v>
@@ -7844,7 +7844,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.7726286546688672</v>
+        <v>0.7726286546688674</v>
       </c>
       <c r="D86" t="n">
         <v>0.596955038015424</v>
@@ -7864,7 +7864,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.966288965685878</v>
+        <v>0.9662889656858782</v>
       </c>
       <c r="D87" t="n">
         <v>0.9337143652062845</v>
@@ -7884,7 +7884,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.923938347131065</v>
+        <v>0.9239383471310652</v>
       </c>
       <c r="D88" t="n">
         <v>0.8536620692992849</v>
@@ -7904,7 +7904,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.3500856946253748</v>
+        <v>0.3500856946253749</v>
       </c>
       <c r="D89" t="n">
         <v>0.1225599935813313</v>
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.7802994289863512</v>
+        <v>0.7802994289863513</v>
       </c>
       <c r="D91" t="n">
         <v>0.6088671988764257</v>
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.3866402513928519</v>
+        <v>0.3866402513928517</v>
       </c>
       <c r="D92" t="n">
         <v>0.1494906839971276</v>
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.2435241050645214</v>
+        <v>0.2435241050645213</v>
       </c>
       <c r="D93" t="n">
         <v>0.05930398974747599</v>
@@ -8028,7 +8028,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.1695174518638359</v>
+        <v>0.1695174518638358</v>
       </c>
       <c r="D95" t="n">
         <v>0.0287361664864079</v>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.4976648627892607</v>
+        <v>0.4976648627892605</v>
       </c>
       <c r="D97" t="n">
         <v>0.2476703156550535</v>
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.3774591012506137</v>
+        <v>-0.3774591012506136</v>
       </c>
       <c r="D98" t="n">
         <v>0.142475373116921</v>
@@ -8108,7 +8108,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.4553831091693319</v>
+        <v>0.4553831091693318</v>
       </c>
       <c r="D99" t="n">
         <v>0.2073737761167276</v>
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.3509398803138827</v>
+        <v>0.3509398803138826</v>
       </c>
       <c r="D101" t="n">
         <v>0.1231587995947222</v>
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.439657925156716</v>
+        <v>0.4396579251567161</v>
       </c>
       <c r="D105" t="n">
         <v>0.1932990911531086</v>
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.4842783559383309</v>
+        <v>0.484278355938331</v>
       </c>
       <c r="D106" t="n">
         <v>0.2345255260303327</v>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.4203124917466444</v>
+        <v>-0.4203124917466445</v>
       </c>
       <c r="D107" t="n">
         <v>0.1766625907182731</v>
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.1292460100139337</v>
+        <v>0.1292460100139338</v>
       </c>
       <c r="D109" t="n">
         <v>0.01670453110452188</v>
@@ -8336,7 +8336,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.8756964442925481</v>
+        <v>0.8756964442925477</v>
       </c>
       <c r="D110" t="n">
         <v>0.7668442625466112</v>
@@ -8356,7 +8356,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.9058913062311897</v>
+        <v>0.90589130623119</v>
       </c>
       <c r="D111" t="n">
         <v>0.8206390587052514</v>
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.8395129841826704</v>
+        <v>0.8395129841826705</v>
       </c>
       <c r="D113" t="n">
         <v>0.7047820506112926</v>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.8838556490215087</v>
+        <v>0.8838556490215086</v>
       </c>
       <c r="D115" t="n">
         <v>0.7812008083072324</v>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.6163764965748967</v>
+        <v>0.6163764965748966</v>
       </c>
       <c r="D116" t="n">
         <v>0.3799199855299438</v>
@@ -8476,7 +8476,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.8656185222453614</v>
+        <v>0.8656185222453612</v>
       </c>
       <c r="D117" t="n">
         <v>0.7492954260542428</v>
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.8999560793834996</v>
+        <v>0.8999560793834999</v>
       </c>
       <c r="D118" t="n">
         <v>0.8099209448193203</v>
@@ -8520,7 +8520,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.8734295131073846</v>
+        <v>0.8734295131073841</v>
       </c>
       <c r="D119" t="n">
         <v>0.7628791143670023</v>
@@ -8600,7 +8600,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.9443752257014104</v>
+        <v>0.9443752257014105</v>
       </c>
       <c r="D123" t="n">
         <v>0.8918445669185896</v>
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.8885395016789609</v>
+        <v>0.888539501678961</v>
       </c>
       <c r="D124" t="n">
         <v>0.7895024460438962</v>
@@ -8660,7 +8660,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.8684565374530619</v>
+        <v>0.8684565374530616</v>
       </c>
       <c r="D126" t="n">
         <v>0.7542167574449612</v>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.8927875621838156</v>
+        <v>0.8927875621838157</v>
       </c>
       <c r="D127" t="n">
         <v>0.7970696311901204</v>
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.8529732665877208</v>
+        <v>0.8529732665877209</v>
       </c>
       <c r="D129" t="n">
         <v>0.727563393513327</v>
@@ -8744,7 +8744,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.8736491872763993</v>
+        <v>0.8736491872763992</v>
       </c>
       <c r="D130" t="n">
         <v>0.763262902428713</v>
@@ -8764,7 +8764,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.7788125011479615</v>
+        <v>0.7788125011479616</v>
       </c>
       <c r="D131" t="n">
         <v>0.6065489119443438</v>
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.7926895747211751</v>
+        <v>0.7926895747211748</v>
       </c>
       <c r="D133" t="n">
         <v>0.6283567618716372</v>
@@ -8878,19 +8878,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A101:A109"/>
     <mergeCell ref="A110:A118"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.6823736244921239</v>
+        <v>-0.6823736244921241</v>
       </c>
       <c r="D6" t="n">
         <v>0.4656337634025183</v>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.5229207778943971</v>
+        <v>-0.5229207778943972</v>
       </c>
       <c r="D7" t="n">
         <v>0.2734461399536813</v>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2758682085022456</v>
+        <v>-0.2758682085022455</v>
       </c>
       <c r="D10" t="n">
         <v>0.07610326846223844</v>
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.4851524676543255</v>
+        <v>0.4851524676543256</v>
       </c>
       <c r="D12" t="n">
         <v>0.2353729168710812</v>
@@ -9170,7 +9170,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.5069555465307333</v>
+        <v>0.5069555465307334</v>
       </c>
       <c r="D13" t="n">
         <v>0.2570039261582743</v>
@@ -9210,7 +9210,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7141332535176613</v>
+        <v>0.7141332535176612</v>
       </c>
       <c r="D15" t="n">
         <v>0.50998630377972</v>
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.5467126429508653</v>
+        <v>0.5467126429508654</v>
       </c>
       <c r="D16" t="n">
         <v>0.2988947139623204</v>
@@ -9290,7 +9290,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3075940758043812</v>
+        <v>0.3075940758043811</v>
       </c>
       <c r="D19" t="n">
         <v>0.09461411546995134</v>
@@ -9314,7 +9314,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.1238898191025314</v>
+        <v>-0.1238898191025313</v>
       </c>
       <c r="D20" t="n">
         <v>0.01534868727725792</v>
@@ -9354,7 +9354,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.06260043966360923</v>
+        <v>-0.06260043966360931</v>
       </c>
       <c r="D22" t="n">
         <v>0.003918815046077183</v>
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.3528624645481853</v>
+        <v>-0.3528624645481854</v>
       </c>
       <c r="D23" t="n">
         <v>0.1245119188870193</v>
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.04004808909118285</v>
+        <v>0.04004808909118293</v>
       </c>
       <c r="D24" t="n">
         <v>0.001603849439855331</v>
@@ -9434,7 +9434,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02071208038169868</v>
+        <v>0.02071208038169869</v>
       </c>
       <c r="D26" t="n">
         <v>0.0004289902737379482</v>
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.009543778369242917</v>
+        <v>-0.009543778369242847</v>
       </c>
       <c r="D28" t="n">
         <v>9.108370556122816e-05</v>
@@ -9498,7 +9498,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.02535824357700519</v>
+        <v>0.02535824357700522</v>
       </c>
       <c r="D29" t="n">
         <v>0.0006430405173107258</v>
@@ -9518,7 +9518,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.06177596018134091</v>
+        <v>0.06177596018134093</v>
       </c>
       <c r="D30" t="n">
         <v>0.003816269256326614</v>
@@ -9558,7 +9558,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.3557097188816292</v>
+        <v>-0.3557097188816291</v>
       </c>
       <c r="D32" t="n">
         <v>0.1265294041068477</v>
@@ -9638,7 +9638,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.09314634509210121</v>
+        <v>-0.09314634509210123</v>
       </c>
       <c r="D36" t="n">
         <v>0.00867624160401681</v>
@@ -9722,7 +9722,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.3642676086953954</v>
+        <v>0.3642676086953953</v>
       </c>
       <c r="D40" t="n">
         <v>0.1326908907446616</v>
@@ -9742,7 +9742,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.6584393254264137</v>
+        <v>0.6584393254264135</v>
       </c>
       <c r="D41" t="n">
         <v>0.4335423452679905</v>
@@ -9762,7 +9762,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.09599045779403494</v>
+        <v>0.09599045779403492</v>
       </c>
       <c r="D42" t="n">
         <v>0.009214167987508397</v>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.4264212253679162</v>
+        <v>0.426421225367916</v>
       </c>
       <c r="D45" t="n">
         <v>0.1818350614442749</v>
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5785845998904207</v>
+        <v>0.5785845998904204</v>
       </c>
       <c r="D46" t="n">
         <v>0.3347601392303583</v>
@@ -9866,7 +9866,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-0.03198427151781071</v>
+        <v>-0.03198427151781073</v>
       </c>
       <c r="D47" t="n">
         <v>0.001022993624525038</v>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.08738943417485144</v>
+        <v>-0.08738943417485143</v>
       </c>
       <c r="D48" t="n">
         <v>0.007636913205400679</v>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.07948879924656554</v>
+        <v>0.07948879924656557</v>
       </c>
       <c r="D49" t="n">
         <v>0.006318469205660805</v>
@@ -9926,7 +9926,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.4226149243831681</v>
+        <v>0.4226149243831682</v>
       </c>
       <c r="D50" t="n">
         <v>0.1786033743113909</v>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.2057476373010089</v>
+        <v>-0.2057476373010088</v>
       </c>
       <c r="D51" t="n">
         <v>0.04233209025494748</v>
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.04020442547889649</v>
+        <v>0.04020442547889647</v>
       </c>
       <c r="D52" t="n">
         <v>0.001616395828088141</v>
@@ -10006,7 +10006,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.1495921074809727</v>
+        <v>0.1495921074809726</v>
       </c>
       <c r="D54" t="n">
         <v>0.02237779862059886</v>
@@ -10026,7 +10026,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.3091815179995112</v>
+        <v>0.3091815179995111</v>
       </c>
       <c r="D55" t="n">
         <v>0.095593211072482</v>
@@ -10070,7 +10070,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.2737264509909866</v>
+        <v>0.2737264509909865</v>
       </c>
       <c r="D57" t="n">
         <v>0.07492616997212095</v>
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.07911367739778474</v>
+        <v>-0.07911367739778477</v>
       </c>
       <c r="D58" t="n">
         <v>0.006258973951400754</v>
@@ -10130,7 +10130,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.00172682680216496</v>
+        <v>-0.001726826802165002</v>
       </c>
       <c r="D60" t="n">
         <v>2.981930804675278e-06</v>
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.3341579810321272</v>
+        <v>-0.3341579810321274</v>
       </c>
       <c r="D61" t="n">
         <v>0.1116615562874676</v>
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.07785709947304033</v>
+        <v>-0.07785709947304037</v>
       </c>
       <c r="D62" t="n">
         <v>0.006061727938354898</v>
@@ -10210,7 +10210,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.06663194628267763</v>
+        <v>-0.06663194628267766</v>
       </c>
       <c r="D64" t="n">
         <v>0.004439816265417635</v>
@@ -10254,7 +10254,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.05327368001090557</v>
+        <v>0.05327368001090554</v>
       </c>
       <c r="D66" t="n">
         <v>0.002838084981904357</v>
@@ -10274,7 +10274,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-0.3027165095774986</v>
+        <v>-0.3027165095774988</v>
       </c>
       <c r="D67" t="n">
         <v>0.09163728517078389</v>
@@ -10294,7 +10294,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.53231421231158</v>
+        <v>-0.5323142123115803</v>
       </c>
       <c r="D68" t="n">
         <v>0.2833584206288983</v>
@@ -10334,7 +10334,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.4203174576466431</v>
+        <v>-0.4203174576466432</v>
       </c>
       <c r="D70" t="n">
         <v>0.1766667652025377</v>
@@ -10354,7 +10354,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.3895733543126305</v>
+        <v>-0.3895733543126306</v>
       </c>
       <c r="D71" t="n">
         <v>0.1517673983903944</v>
@@ -10374,7 +10374,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.2666217039507632</v>
+        <v>-0.2666217039507633</v>
       </c>
       <c r="D72" t="n">
         <v>0.07108713301760844</v>
@@ -10394,7 +10394,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.3561625865581405</v>
+        <v>-0.3561625865581404</v>
       </c>
       <c r="D73" t="n">
         <v>0.1268517880637849</v>
@@ -10438,7 +10438,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.02037575126245755</v>
+        <v>0.0203757512624575</v>
       </c>
       <c r="D75" t="n">
         <v>0.0004151712395095379</v>
@@ -10498,7 +10498,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.05098529005357827</v>
+        <v>-0.05098529005357828</v>
       </c>
       <c r="D78" t="n">
         <v>0.002599499801847511</v>
@@ -10518,7 +10518,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1986483406534342</v>
+        <v>0.1986483406534343</v>
       </c>
       <c r="D79" t="n">
         <v>0.03946116324436285</v>
@@ -10538,7 +10538,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.474641866949013</v>
+        <v>0.4746418669490129</v>
       </c>
       <c r="D80" t="n">
         <v>0.2252849018608446</v>
@@ -10578,7 +10578,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.4556417452228929</v>
+        <v>0.4556417452228928</v>
       </c>
       <c r="D82" t="n">
         <v>0.2076093999897637</v>
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.8912474646064037</v>
+        <v>0.8912474646064036</v>
       </c>
       <c r="D83" t="n">
         <v>0.794322043167343</v>
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.5747883977338022</v>
+        <v>0.5747883977338021</v>
       </c>
       <c r="D84" t="n">
         <v>0.3303817021693912</v>
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8050009949179655</v>
+        <v>0.8050009949179657</v>
       </c>
       <c r="D85" t="n">
         <v>0.6480266018189147</v>
@@ -10662,7 +10662,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.6597971695009126</v>
+        <v>0.6597971695009124</v>
       </c>
       <c r="D86" t="n">
         <v>0.435332304881416</v>
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.8679417861596095</v>
+        <v>0.8679417861596093</v>
       </c>
       <c r="D87" t="n">
         <v>0.7533229441619335</v>
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.613191565645112</v>
+        <v>0.6131915656451119</v>
       </c>
       <c r="D89" t="n">
         <v>0.3760038961783039</v>
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.7837474533595964</v>
+        <v>0.7837474533595962</v>
       </c>
       <c r="D90" t="n">
         <v>0.6142600706476522</v>
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.7518924327710732</v>
+        <v>0.751892432771073</v>
       </c>
       <c r="D91" t="n">
         <v>0.5653422304584025</v>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.6887575682696867</v>
+        <v>0.6887575682696869</v>
       </c>
       <c r="D92" t="n">
         <v>0.4743869878487724</v>
@@ -10826,7 +10826,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.5494102270144539</v>
+        <v>0.549410227014454</v>
       </c>
       <c r="D94" t="n">
         <v>0.3018515975480738</v>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.2180435076734652</v>
+        <v>0.2180435076734653</v>
       </c>
       <c r="D95" t="n">
         <v>0.04754297123854849</v>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.7387756626151236</v>
+        <v>0.7387756626151235</v>
       </c>
       <c r="D96" t="n">
         <v>0.5457894796724148</v>
@@ -10886,7 +10886,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.5818714055514165</v>
+        <v>0.5818714055514167</v>
       </c>
       <c r="D97" t="n">
         <v>0.3385743325983813</v>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.3649513338289086</v>
+        <v>0.3649513338289085</v>
       </c>
       <c r="D100" t="n">
         <v>0.1331894760634995</v>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.5796023157681806</v>
+        <v>0.5796023157681807</v>
       </c>
       <c r="D101" t="n">
         <v>0.3359388444438375</v>
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.3945437945245492</v>
+        <v>0.3945437945245491</v>
       </c>
       <c r="D102" t="n">
         <v>0.1556648057978296</v>
@@ -11070,7 +11070,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.4961647147521643</v>
+        <v>0.4961647147521644</v>
       </c>
       <c r="D106" t="n">
         <v>0.2461794241650966</v>
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.4037741018369704</v>
+        <v>0.4037741018369703</v>
       </c>
       <c r="D108" t="n">
         <v>0.1630335253142521</v>
@@ -11130,7 +11130,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.250230578878209</v>
+        <v>0.2502305788782089</v>
       </c>
       <c r="D109" t="n">
         <v>0.06261534260572352</v>
@@ -11254,7 +11254,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.7030644550136902</v>
+        <v>0.7030644550136904</v>
       </c>
       <c r="D115" t="n">
         <v>0.4942996279036972</v>
@@ -11274,7 +11274,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.7859408602576656</v>
+        <v>0.7859408602576657</v>
       </c>
       <c r="D116" t="n">
         <v>0.6177030358225597</v>
@@ -11294,7 +11294,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.7098304340506255</v>
+        <v>0.7098304340506254</v>
       </c>
       <c r="D117" t="n">
         <v>0.503859245104499</v>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.836727643567185</v>
+        <v>0.8367276435671849</v>
       </c>
       <c r="D118" t="n">
         <v>0.7001131495094943</v>
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.6767534416673039</v>
+        <v>0.6767534416673038</v>
       </c>
       <c r="D119" t="n">
         <v>0.4579952208085409</v>
@@ -11378,7 +11378,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.6719146300969068</v>
+        <v>0.6719146300969067</v>
       </c>
       <c r="D121" t="n">
         <v>0.4514692701382628</v>
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.8266622813347</v>
+        <v>0.8266622813347001</v>
       </c>
       <c r="D122" t="n">
         <v>0.6833705273814914</v>
@@ -11438,7 +11438,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.6931098351556443</v>
+        <v>0.6931098351556444</v>
       </c>
       <c r="D124" t="n">
         <v>0.4804012435894848</v>
@@ -11458,7 +11458,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.7372461113703577</v>
+        <v>0.7372461113703576</v>
       </c>
       <c r="D125" t="n">
         <v>0.543531828730714</v>
@@ -11478,7 +11478,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.7280138325590416</v>
+        <v>0.7280138325590415</v>
       </c>
       <c r="D126" t="n">
         <v>0.5300041403973041</v>
@@ -11498,7 +11498,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.8107889470200712</v>
+        <v>0.8107889470200711</v>
       </c>
       <c r="D127" t="n">
         <v>0.657378716609916</v>
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.4201250777788017</v>
+        <v>0.4201250777788016</v>
       </c>
       <c r="D128" t="n">
         <v>0.1765050809786442</v>
@@ -11542,7 +11542,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.294120952240816</v>
+        <v>0.2941209522408159</v>
       </c>
       <c r="D129" t="n">
         <v>0.08650713454704428</v>
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.7285800184350221</v>
+        <v>0.7285800184350217</v>
       </c>
       <c r="D131" t="n">
         <v>0.5308288432627771</v>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.24796460301722</v>
+        <v>0.2479646030172199</v>
       </c>
       <c r="D132" t="n">
         <v>0.06148644434948745</v>
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.5282982421687019</v>
+        <v>0.5282982421687018</v>
       </c>
       <c r="D135" t="n">
         <v>0.2790990326785402</v>
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.7146379207192285</v>
+        <v>0.7146379207192283</v>
       </c>
       <c r="D136" t="n">
         <v>0.5107073577299025</v>
@@ -11696,19 +11696,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A101:A109"/>
     <mergeCell ref="A110:A118"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.3135205833479583</v>
+        <v>-0.3135205833479584</v>
       </c>
       <c r="D2" t="n">
         <v>0.09829515618284414</v>
@@ -11784,7 +11784,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5359659135609212</v>
+        <v>0.5359659135609213</v>
       </c>
       <c r="D3" t="n">
         <v>0.2872594604991929</v>
@@ -11804,7 +11804,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.7702549555108799</v>
+        <v>-0.77025495551088</v>
       </c>
       <c r="D4" t="n">
         <v>0.5932926964890677</v>
@@ -11824,7 +11824,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.6605137381577275</v>
+        <v>-0.6605137381577277</v>
       </c>
       <c r="D5" t="n">
         <v>0.4362783982950952</v>
@@ -11864,7 +11864,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.6348917243710285</v>
+        <v>-0.6348917243710286</v>
       </c>
       <c r="D7" t="n">
         <v>0.4030875016748183</v>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1343354118257375</v>
+        <v>-0.1343354118257376</v>
       </c>
       <c r="D8" t="n">
         <v>0.01804600287039051</v>
@@ -11904,7 +11904,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4401023097425771</v>
+        <v>-0.4401023097425772</v>
       </c>
       <c r="D9" t="n">
         <v>0.1936900430407513</v>
@@ -11968,7 +11968,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.5123130418293966</v>
+        <v>-0.5123130418293965</v>
       </c>
       <c r="D12" t="n">
         <v>0.2624646528284891</v>
@@ -12028,7 +12028,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8311061585553431</v>
+        <v>0.831106158555343</v>
       </c>
       <c r="D15" t="n">
         <v>0.6907374467886189</v>
@@ -12088,7 +12088,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4386759495898841</v>
+        <v>0.438675949589884</v>
       </c>
       <c r="D18" t="n">
         <v>0.1924365887485865</v>
@@ -12152,7 +12152,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.1724619284442714</v>
+        <v>-0.1724619284442715</v>
       </c>
       <c r="D21" t="n">
         <v>0.02974311676271701</v>
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2131058651786874</v>
+        <v>0.2131058651786875</v>
       </c>
       <c r="D23" t="n">
         <v>0.04541410977355688</v>
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3740677586978174</v>
+        <v>0.3740677586978173</v>
       </c>
       <c r="D26" t="n">
         <v>0.1399266880972085</v>
@@ -12272,7 +12272,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.06291694950590698</v>
+        <v>0.062916949505907</v>
       </c>
       <c r="D27" t="n">
         <v>0.003958542535128856</v>
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.07146787709868098</v>
+        <v>0.07146787709868095</v>
       </c>
       <c r="D28" t="n">
         <v>0.005107657456992164</v>
@@ -12336,7 +12336,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01382885729081074</v>
+        <v>-0.01382885729081073</v>
       </c>
       <c r="D30" t="n">
         <v>0.0001912372939696095</v>
@@ -12376,7 +12376,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3446116538830709</v>
+        <v>0.3446116538830708</v>
       </c>
       <c r="D32" t="n">
         <v>0.1187571919920254</v>
@@ -12436,7 +12436,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.6230404243288383</v>
+        <v>0.6230404243288381</v>
       </c>
       <c r="D35" t="n">
         <v>0.3881793703478588</v>
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.1769173876341838</v>
+        <v>-0.1769173876341837</v>
       </c>
       <c r="D42" t="n">
         <v>0.03129976204730405</v>
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.4785005092800381</v>
+        <v>0.478500509280038</v>
       </c>
       <c r="D44" t="n">
         <v>0.2289627373812559</v>
@@ -12640,7 +12640,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.09049245526309393</v>
+        <v>0.09049245526309399</v>
       </c>
       <c r="D45" t="n">
         <v>0.00818888445954306</v>
@@ -12660,7 +12660,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.4917541098488936</v>
+        <v>0.4917541098488935</v>
       </c>
       <c r="D46" t="n">
         <v>0.2418221045532776</v>
@@ -12684,7 +12684,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.01031719283366019</v>
+        <v>0.01031719283366013</v>
       </c>
       <c r="D47" t="n">
         <v>0.0001064444679669283</v>
@@ -12784,7 +12784,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.3365598929413992</v>
+        <v>-0.3365598929413993</v>
       </c>
       <c r="D52" t="n">
         <v>0.1132725615367261</v>
@@ -12844,7 +12844,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2743092600941673</v>
+        <v>0.2743092600941675</v>
       </c>
       <c r="D55" t="n">
         <v>0.07524557017340958</v>
@@ -12868,7 +12868,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.3677024752108225</v>
+        <v>0.3677024752108224</v>
       </c>
       <c r="D56" t="n">
         <v>0.1352051102761654</v>
@@ -12908,7 +12908,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.06784250283335988</v>
+        <v>0.06784250283335991</v>
       </c>
       <c r="D58" t="n">
         <v>0.004602605190694451</v>
@@ -12928,7 +12928,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.01707304576832728</v>
+        <v>-0.01707304576832727</v>
       </c>
       <c r="D59" t="n">
         <v>0.0002914888918073968</v>
@@ -12968,7 +12968,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.02601794561091794</v>
+        <v>-0.02601794561091793</v>
       </c>
       <c r="D61" t="n">
         <v>0.0006769334938126842</v>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.3922892525003669</v>
+        <v>0.3922892525003667</v>
       </c>
       <c r="D62" t="n">
         <v>0.1538908576272966</v>
@@ -13008,7 +13008,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.07735129015718127</v>
+        <v>-0.07735129015718123</v>
       </c>
       <c r="D63" t="n">
         <v>0.005983222088980444</v>
@@ -13028,7 +13028,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.07152071022883132</v>
+        <v>0.07152071022883133</v>
       </c>
       <c r="D64" t="n">
         <v>0.00511521199163646</v>
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.6531711437481527</v>
+        <v>0.6531711437481525</v>
       </c>
       <c r="D69" t="n">
         <v>0.4266325430252696</v>
@@ -13172,7 +13172,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.4741795412785388</v>
+        <v>0.4741795412785386</v>
       </c>
       <c r="D71" t="n">
         <v>0.2248462373671251</v>
@@ -13192,7 +13192,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.2333851980237036</v>
+        <v>0.2333851980237037</v>
       </c>
       <c r="D72" t="n">
         <v>0.05446865065656337</v>
@@ -13212,7 +13212,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.041979453983745</v>
+        <v>0.04197945398374504</v>
       </c>
       <c r="D73" t="n">
         <v>0.001762274556773365</v>
@@ -13256,7 +13256,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.5248252207723325</v>
+        <v>0.5248252207723324</v>
       </c>
       <c r="D75" t="n">
         <v>0.2754415123587275</v>
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.2782415727336709</v>
+        <v>-0.278241572733671</v>
       </c>
       <c r="D77" t="n">
         <v>0.07741837279730676</v>
@@ -13316,7 +13316,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.2767037095761135</v>
+        <v>-0.2767037095761136</v>
       </c>
       <c r="D78" t="n">
         <v>0.07656494289318221</v>
@@ -13356,7 +13356,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.4126711271952283</v>
+        <v>0.4126711271952282</v>
       </c>
       <c r="D80" t="n">
         <v>0.1702974592205802</v>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.01414356936108931</v>
+        <v>-0.0141435693610894</v>
       </c>
       <c r="D81" t="n">
         <v>0.0002000405542719438</v>
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.3837142607326467</v>
+        <v>0.3837142607326466</v>
       </c>
       <c r="D82" t="n">
         <v>0.1472366338896015</v>
@@ -13440,7 +13440,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.4949129075512239</v>
+        <v>-0.4949129075512237</v>
       </c>
       <c r="D84" t="n">
         <v>0.2449387860608062</v>
@@ -13480,7 +13480,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.8641248449573204</v>
+        <v>0.8641248449573203</v>
       </c>
       <c r="D86" t="n">
         <v>0.7467117476725129</v>
@@ -13500,7 +13500,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9844340176477968</v>
+        <v>0.9844340176477966</v>
       </c>
       <c r="D87" t="n">
         <v>0.9691103351021829</v>
@@ -13540,7 +13540,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.4673700761090117</v>
+        <v>0.4673700761090115</v>
       </c>
       <c r="D89" t="n">
         <v>0.2184347880421433</v>
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.6719689253869813</v>
+        <v>0.6719689253869812</v>
       </c>
       <c r="D90" t="n">
         <v>0.4515422366857344</v>
@@ -13580,7 +13580,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.6262215436510606</v>
+        <v>0.6262215436510605</v>
       </c>
       <c r="D91" t="n">
         <v>0.3921534217327172</v>
@@ -13604,7 +13604,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.2525923809755816</v>
+        <v>0.2525923809755817</v>
       </c>
       <c r="D92" t="n">
         <v>0.0638029109269134</v>
@@ -13624,7 +13624,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>-0.4430245158503336</v>
+        <v>-0.4430245158503338</v>
       </c>
       <c r="D93" t="n">
         <v>0.1962707216444227</v>
@@ -13644,7 +13644,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.7432502119203732</v>
+        <v>0.7432502119203731</v>
       </c>
       <c r="D94" t="n">
         <v>0.5524208775196797</v>
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.5717395102796563</v>
+        <v>0.5717395102796562</v>
       </c>
       <c r="D95" t="n">
         <v>0.3268860676148211</v>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.7719471335936074</v>
+        <v>0.7719471335936071</v>
       </c>
       <c r="D96" t="n">
         <v>0.5959023770633867</v>
@@ -13744,7 +13744,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.360065712619663</v>
+        <v>0.3600657126196631</v>
       </c>
       <c r="D99" t="n">
         <v>0.1296473174043058</v>
@@ -13788,7 +13788,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.252296233578475</v>
+        <v>0.2522962335784749</v>
       </c>
       <c r="D101" t="n">
         <v>0.06365338947788438</v>
@@ -13828,7 +13828,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.7063748328590862</v>
+        <v>0.7063748328590863</v>
       </c>
       <c r="D103" t="n">
         <v>0.498965404496702</v>
@@ -13868,7 +13868,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.7590354413645144</v>
+        <v>0.7590354413645142</v>
       </c>
       <c r="D105" t="n">
         <v>0.576134801247423</v>
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.6390205762427369</v>
+        <v>0.639020576242737</v>
       </c>
       <c r="D106" t="n">
         <v>0.4083472968615997</v>
@@ -13908,7 +13908,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.03481250207869941</v>
+        <v>0.03481250207869946</v>
       </c>
       <c r="D107" t="n">
         <v>0.00121191030097945</v>
@@ -13928,7 +13928,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.4186056163030898</v>
+        <v>0.4186056163030897</v>
       </c>
       <c r="D108" t="n">
         <v>0.1752306620004895</v>
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.3695260920034812</v>
+        <v>0.3695260920034813</v>
       </c>
       <c r="D110" t="n">
         <v>0.1365495326713653</v>
@@ -14012,7 +14012,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.4511819414278283</v>
+        <v>0.4511819414278284</v>
       </c>
       <c r="D112" t="n">
         <v>0.2035651442705843</v>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.373202127311508</v>
+        <v>0.3732021273115079</v>
       </c>
       <c r="D113" t="n">
         <v>0.139279827829835</v>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.4475076200993083</v>
+        <v>0.4475076200993082</v>
       </c>
       <c r="D114" t="n">
         <v>0.2002630700469468</v>
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.3697451235558963</v>
+        <v>0.3697451235558962</v>
       </c>
       <c r="D115" t="n">
         <v>0.136711456393365</v>
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.7746146070114361</v>
+        <v>0.7746146070114357</v>
       </c>
       <c r="D116" t="n">
         <v>0.6000277893954812</v>
@@ -14112,7 +14112,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.5316217156531085</v>
+        <v>0.5316217156531086</v>
       </c>
       <c r="D117" t="n">
         <v>0.2826216485539546</v>
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.8223951902907424</v>
+        <v>0.8223951902907425</v>
       </c>
       <c r="D118" t="n">
         <v>0.6763338490133464</v>
@@ -14156,7 +14156,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.3635916527946092</v>
+        <v>0.3635916527946091</v>
       </c>
       <c r="D119" t="n">
         <v>0.1321988899819156</v>
@@ -14176,7 +14176,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.1873888936821264</v>
+        <v>0.1873888936821263</v>
       </c>
       <c r="D120" t="n">
         <v>0.03511459747541126</v>
@@ -14216,7 +14216,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.3865652092318084</v>
+        <v>0.3865652092318083</v>
       </c>
       <c r="D122" t="n">
         <v>0.1494326609884318</v>
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.5575187255608763</v>
+        <v>0.5575187255608762</v>
       </c>
       <c r="D123" t="n">
         <v>0.3108271293510237</v>
@@ -14276,7 +14276,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.8146981740547945</v>
+        <v>0.8146981740547944</v>
       </c>
       <c r="D125" t="n">
         <v>0.6637331148082163</v>
@@ -14460,7 +14460,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.5754048020638609</v>
+        <v>0.5754048020638607</v>
       </c>
       <c r="D134" t="n">
         <v>0.3310906862381507</v>
@@ -14480,7 +14480,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.009496166865411892</v>
+        <v>-0.009496166865411909</v>
       </c>
       <c r="D135" t="n">
         <v>9.017718513574685e-05</v>
@@ -14500,7 +14500,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.3899398794648678</v>
+        <v>0.3899398794648677</v>
       </c>
       <c r="D136" t="n">
         <v>0.1520531095970755</v>
@@ -14514,19 +14514,19 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A101:A109"/>
     <mergeCell ref="A110:A118"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
     <mergeCell ref="A119:A127"/>
     <mergeCell ref="A128:A136"/>
   </mergeCells>
